--- a/data/Literature_Review.xlsx
+++ b/data/Literature_Review.xlsx
@@ -61,24 +61,15 @@
     <t>type</t>
   </si>
   <si>
-    <t>AAPE</t>
-  </si>
-  <si>
     <t>ACV</t>
   </si>
   <si>
     <t>ASD</t>
   </si>
   <si>
-    <t>AAAD</t>
-  </si>
-  <si>
     <t>ACV2</t>
   </si>
   <si>
-    <t>AAPE2</t>
-  </si>
-  <si>
     <t>checkbias</t>
   </si>
   <si>
@@ -448,9 +439,6 @@
     <t>scales</t>
   </si>
   <si>
-    <t>chisquare</t>
-  </si>
-  <si>
     <t>pressed</t>
   </si>
   <si>
@@ -533,6 +521,18 @@
   </si>
   <si>
     <t>Summary of slope significance (neither, no hetero, hetero, both)</t>
+  </si>
+  <si>
+    <t>symmetry</t>
+  </si>
+  <si>
+    <t>APE</t>
+  </si>
+  <si>
+    <t>AAD</t>
+  </si>
+  <si>
+    <t>APE2</t>
   </si>
 </sst>
 </file>
@@ -861,7 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -884,33 +884,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B2">
         <v>2005</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -919,21 +919,21 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>1992</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -944,16 +944,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B4">
         <v>1992</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -964,16 +964,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B5">
         <v>2004</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -984,16 +984,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B6">
         <v>1999</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1004,16 +1004,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B7">
         <v>2011</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1024,16 +1024,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B8">
         <v>1994</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1044,39 +1044,39 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>1987</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B10">
         <v>1989</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1085,21 +1085,21 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B11">
         <v>2017</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1110,16 +1110,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B12">
         <v>2018</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -1127,16 +1127,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B13">
         <v>2011</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1215,75 +1215,75 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1298,69 +1298,69 @@
         <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N2">
         <v>2.5</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U2" t="b">
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W2" t="b">
         <v>0</v>
       </c>
       <c r="X2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -1375,69 +1375,69 @@
         <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>3.89</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U3" t="b">
         <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W3" t="b">
         <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -1452,69 +1452,69 @@
         <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>5.0199999999999996</v>
       </c>
       <c r="O4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U4" t="b">
         <v>1</v>
       </c>
       <c r="V4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W4" t="b">
         <v>0</v>
       </c>
       <c r="X4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1529,69 +1529,69 @@
         <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>11.11</v>
       </c>
       <c r="O5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U5" t="b">
         <v>1</v>
       </c>
       <c r="V5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W5" t="b">
         <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -1606,72 +1606,72 @@
         <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>5.4</v>
       </c>
       <c r="O6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U6" t="b">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W6" t="b">
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G7">
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1680,72 +1680,72 @@
         <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N7">
         <v>5.6</v>
       </c>
       <c r="O7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U7" t="b">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W7" t="b">
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I8">
         <v>4</v>
@@ -1754,69 +1754,69 @@
         <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U8" t="b">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W8" t="b">
         <v>1</v>
       </c>
       <c r="X8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Y8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1831,31 +1831,31 @@
         <v>72</v>
       </c>
       <c r="K9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N9">
         <v>6</v>
       </c>
       <c r="O9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T9">
         <v>6</v>
@@ -1864,36 +1864,36 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W9" t="b">
         <v>0</v>
       </c>
       <c r="X9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1908,31 +1908,31 @@
         <v>72</v>
       </c>
       <c r="K10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N10">
         <v>6</v>
       </c>
       <c r="O10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T10">
         <v>10</v>
@@ -1941,36 +1941,36 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W10" t="b">
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1985,7 +1985,7 @@
         <v>72</v>
       </c>
       <c r="K11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L11">
         <v>43</v>
@@ -1997,54 +1997,54 @@
         <v>6.3</v>
       </c>
       <c r="O11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U11" t="b">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W11" t="b">
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2068,60 +2068,60 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U12" t="b">
         <v>1</v>
       </c>
       <c r="V12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W12" t="b">
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2145,57 +2145,57 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U13" t="b">
         <v>1</v>
       </c>
       <c r="V13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W13" t="b">
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2219,60 +2219,60 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U14" t="b">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W14" t="b">
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -2296,60 +2296,60 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U15" t="b">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W15" t="b">
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2373,285 +2373,285 @@
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U16" t="b">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W16" t="b">
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J17">
         <v>25</v>
       </c>
       <c r="K17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>11.2</v>
       </c>
       <c r="O17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J18">
         <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L18">
         <v>65</v>
       </c>
       <c r="M18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>4.7</v>
       </c>
       <c r="O18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U18" t="b">
         <v>1</v>
       </c>
       <c r="V18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J19">
         <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L19">
         <v>95</v>
       </c>
       <c r="M19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>3.1</v>
       </c>
       <c r="O19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U19" t="b">
         <v>1</v>
       </c>
       <c r="V19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2678,54 +2678,54 @@
         <v>2.8</v>
       </c>
       <c r="O20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U20" t="b">
         <v>1</v>
       </c>
       <c r="V20" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="W20" t="b">
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2752,54 +2752,54 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="O21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U21" t="b">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W21" t="b">
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
         <v>143</v>
       </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" t="s">
-        <v>147</v>
-      </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2826,51 +2826,51 @@
         <v>4.7</v>
       </c>
       <c r="P22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U22" t="b">
         <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="W22" t="b">
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2897,51 +2897,51 @@
         <v>12.1</v>
       </c>
       <c r="P23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U23" t="b">
         <v>1</v>
       </c>
       <c r="V23" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="W23" t="b">
         <v>0</v>
       </c>
       <c r="X23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
         <v>141</v>
       </c>
-      <c r="B24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" t="s">
-        <v>145</v>
-      </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2968,31 +2968,31 @@
         <v>7.4</v>
       </c>
       <c r="P24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U24" t="b">
         <v>1</v>
       </c>
       <c r="V24" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="W24" t="b">
         <v>0</v>
       </c>
       <c r="X24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3018,10 +3018,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3037,15 +3037,15 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3053,31 +3053,31 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3091,7 +3091,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3103,13 +3103,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3125,10 +3125,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3136,10 +3136,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3147,10 +3147,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3158,10 +3158,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3169,10 +3169,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3180,7 +3180,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3188,149 +3188,149 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3343,7 +3343,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3355,13 +3355,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3377,10 +3377,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3388,10 +3388,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3399,10 +3399,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3410,10 +3410,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3421,10 +3421,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3432,7 +3432,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3440,114 +3440,114 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3572,13 +3572,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3594,10 +3594,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3605,10 +3605,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3616,10 +3616,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3627,10 +3627,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3638,90 +3638,90 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/Literature_Review.xlsx
+++ b/data/Literature_Review.xlsx
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
-    <sheet name="Results" sheetId="2" r:id="rId2"/>
-    <sheet name="Study_Meta" sheetId="3" r:id="rId3"/>
+    <sheet name="Study_Meta" sheetId="3" r:id="rId2"/>
+    <sheet name="Results" sheetId="2" r:id="rId3"/>
     <sheet name="Results_Meta" sheetId="4" r:id="rId4"/>
     <sheet name="AnalysisSum_Meta" sheetId="5" r:id="rId5"/>
     <sheet name="AnalysisTests_Meta" sheetId="6" r:id="rId6"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="170">
   <si>
     <t>studyID</t>
   </si>
@@ -109,9 +109,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
     <t>Difficult because compared between labs; only recorded between-reader internal lab results</t>
   </si>
   <si>
@@ -382,9 +379,6 @@
     <t>Whether (TRUE) or not (FALSE) checked for systematic bias among readers</t>
   </si>
   <si>
-    <t>Whether (TRUE) or not (FALSE) checked for a relationship between the precision metric and age.</t>
-  </si>
-  <si>
     <t>agemin</t>
   </si>
   <si>
@@ -533,6 +527,18 @@
   </si>
   <si>
     <t>APE2</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>Ogle</t>
+  </si>
+  <si>
+    <t>Who deciphered the data</t>
+  </si>
+  <si>
+    <t>Whether (TRUE) or not (FALSE) checked for a relationship between the precision metric and age</t>
   </si>
 </sst>
 </file>
@@ -862,7 +868,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,18 +896,18 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <v>2005</v>
@@ -919,21 +925,21 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>1992</v>
       </c>
       <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -944,16 +950,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4">
         <v>1992</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -964,13 +970,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5">
         <v>2004</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -984,7 +990,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6">
         <v>1999</v>
@@ -993,7 +999,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1004,7 +1010,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7">
         <v>2011</v>
@@ -1013,7 +1019,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1024,7 +1030,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8">
         <v>1994</v>
@@ -1033,7 +1039,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1044,13 +1050,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9">
         <v>1987</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -1062,21 +1068,21 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10">
         <v>1989</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1085,12 +1091,12 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B11">
         <v>2017</v>
@@ -1099,7 +1105,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1110,7 +1116,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12">
         <v>2018</v>
@@ -1119,7 +1125,7 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -1127,7 +1133,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B13">
         <v>2011</v>
@@ -1136,7 +1142,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -1155,10 +1161,93 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z24"/>
+  <sheetViews>
+    <sheetView topLeftCell="V1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3:Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1186,10 +1275,11 @@
     <col min="22" max="22" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5546875" customWidth="1"/>
+    <col min="26" max="26" width="29.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1215,22 +1305,22 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>10</v>
@@ -1239,22 +1329,22 @@
         <v>11</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>14</v>
@@ -1263,12 +1353,15 @@
         <v>15</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -1277,7 +1370,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -1331,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W2" t="b">
         <v>0</v>
@@ -1340,12 +1433,15 @@
         <v>25</v>
       </c>
       <c r="Y2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -1354,7 +1450,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -1408,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W3" t="b">
         <v>0</v>
@@ -1417,12 +1513,15 @@
         <v>25</v>
       </c>
       <c r="Y3" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -1431,7 +1530,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -1485,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="V4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W4" t="b">
         <v>0</v>
@@ -1494,12 +1593,15 @@
         <v>25</v>
       </c>
       <c r="Y4" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>66</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -1508,7 +1610,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -1562,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="V5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W5" t="b">
         <v>0</v>
@@ -1571,21 +1673,24 @@
         <v>25</v>
       </c>
       <c r="Y5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
@@ -1647,19 +1752,22 @@
       <c r="X6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -1721,19 +1829,22 @@
       <c r="X7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -1793,30 +1904,33 @@
         <v>1</v>
       </c>
       <c r="X8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z8" t="s">
         <v>45</v>
       </c>
-      <c r="Y8" t="s">
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1873,27 +1987,30 @@
         <v>25</v>
       </c>
       <c r="Y9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1950,21 +2067,24 @@
         <v>25</v>
       </c>
       <c r="Y10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
@@ -2026,19 +2146,22 @@
       <c r="X11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
@@ -2092,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="V12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W12" t="b">
         <v>0</v>
@@ -2101,15 +2224,18 @@
         <v>25</v>
       </c>
       <c r="Y12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -2118,7 +2244,7 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -2169,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="V13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W13" t="b">
         <v>0</v>
@@ -2177,25 +2303,28 @@
       <c r="X13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2252,27 +2381,30 @@
         <v>25</v>
       </c>
       <c r="Y14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -2329,27 +2461,30 @@
         <v>25</v>
       </c>
       <c r="Y15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2406,15 +2541,18 @@
         <v>25</v>
       </c>
       <c r="Y16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -2483,15 +2621,18 @@
         <v>25</v>
       </c>
       <c r="Y17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -2551,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="V18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W18" t="s">
         <v>25</v>
@@ -2559,13 +2700,16 @@
       <c r="X18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -2625,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="V19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W19" t="s">
         <v>25</v>
@@ -2633,19 +2777,22 @@
       <c r="X19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
@@ -2699,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="V20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="W20" t="b">
         <v>0</v>
@@ -2707,22 +2854,25 @@
       <c r="X20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
         <v>134</v>
-      </c>
-      <c r="C21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" t="s">
-        <v>136</v>
       </c>
       <c r="F21" t="s">
         <v>23</v>
@@ -2781,22 +2931,25 @@
       <c r="X21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" t="s">
         <v>137</v>
-      </c>
-      <c r="B22" t="s">
-        <v>139</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
@@ -2844,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="W22" t="b">
         <v>0</v>
@@ -2852,19 +3005,22 @@
       <c r="X22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" t="s">
         <v>137</v>
       </c>
-      <c r="B23" t="s">
-        <v>139</v>
-      </c>
       <c r="C23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" t="s">
         <v>140</v>
-      </c>
-      <c r="D23" t="s">
-        <v>142</v>
       </c>
       <c r="E23" t="s">
         <v>22</v>
@@ -2915,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="V23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="W23" t="b">
         <v>0</v>
@@ -2923,22 +3079,25 @@
       <c r="X23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" t="s">
         <v>137</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
         <v>139</v>
-      </c>
-      <c r="C24" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" t="s">
-        <v>141</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -2986,13 +3145,16 @@
         <v>1</v>
       </c>
       <c r="V24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="W24" t="b">
         <v>0</v>
       </c>
       <c r="X24" t="s">
         <v>25</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3003,95 +3165,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3103,13 +3182,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3117,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3125,10 +3204,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3136,10 +3215,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3147,10 +3226,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3158,10 +3237,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3169,10 +3248,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3180,7 +3259,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3188,55 +3267,55 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
         <v>95</v>
-      </c>
-      <c r="B14" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3244,7 +3323,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3252,15 +3331,15 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3268,23 +3347,23 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -3292,18 +3371,18 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
         <v>111</v>
-      </c>
-      <c r="C23" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -3311,7 +3390,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -3319,18 +3398,26 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>104</v>
+      <c r="B27" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3355,13 +3442,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3369,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3377,10 +3464,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3388,10 +3475,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3399,10 +3486,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3410,10 +3497,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3421,10 +3508,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3432,7 +3519,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3440,66 +3527,66 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3507,7 +3594,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -3515,15 +3602,15 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -3531,23 +3618,23 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3560,7 +3647,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3572,13 +3659,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3586,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3594,10 +3681,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3605,10 +3692,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3616,10 +3703,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3627,10 +3714,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3638,90 +3725,90 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/Literature_Review.xlsx
+++ b/data/Literature_Review.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aaaWork\Research\AgePrecision\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\JFL\Documents\Northland\NRS Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12960" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="AnalysisSum_Meta" sheetId="5" r:id="rId5"/>
     <sheet name="AnalysisTests_Meta" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="181">
   <si>
     <t>studyID</t>
   </si>
@@ -539,12 +539,45 @@
   </si>
   <si>
     <t>Whether (TRUE) or not (FALSE) checked for a relationship between the precision metric and age</t>
+  </si>
+  <si>
+    <t>adams_age_2014</t>
+  </si>
+  <si>
+    <t>Blackfin Tuna</t>
+  </si>
+  <si>
+    <t>Little Tunny</t>
+  </si>
+  <si>
+    <t>Skipjack Tuna</t>
+  </si>
+  <si>
+    <t>Lyons</t>
+  </si>
+  <si>
+    <t>Chain Pickerel</t>
+  </si>
+  <si>
+    <t>pelvic</t>
+  </si>
+  <si>
+    <t>anal</t>
+  </si>
+  <si>
+    <t>cleithra</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -582,9 +615,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,18 +905,18 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -905,7 +939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -928,7 +962,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -948,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -968,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -988,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -1008,7 +1042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -1028,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -1048,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -1071,7 +1105,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -1094,7 +1128,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -1114,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -1131,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -1167,12 +1201,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -1180,7 +1214,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1188,7 +1222,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1196,7 +1230,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1204,7 +1238,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1212,7 +1246,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1220,7 +1254,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1228,7 +1262,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1244,42 +1278,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3:Y24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5546875" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.21875" customWidth="1"/>
-    <col min="22" max="22" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5546875" customWidth="1"/>
-    <col min="26" max="26" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.28515625" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5703125" customWidth="1"/>
+    <col min="26" max="26" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1359,14 +1393,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" t="s">
@@ -1376,22 +1410,22 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>300</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2">
+        <v>207</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>57</v>
       </c>
       <c r="L2" t="s">
         <v>25</v>
@@ -1399,8 +1433,8 @@
       <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="N2">
-        <v>2.5</v>
+      <c r="N2" t="s">
+        <v>25</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -1421,10 +1455,10 @@
         <v>25</v>
       </c>
       <c r="U2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="W2" t="b">
         <v>0</v>
@@ -1432,19 +1466,16 @@
       <c r="X2" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+      <c r="Y2" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1456,22 +1487,22 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>300</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>40</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2">
+        <v>203</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>63</v>
       </c>
       <c r="L3" t="s">
         <v>25</v>
@@ -1479,8 +1510,8 @@
       <c r="M3" t="s">
         <v>25</v>
       </c>
-      <c r="N3">
-        <v>3.89</v>
+      <c r="N3" t="s">
+        <v>25</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -1501,10 +1532,10 @@
         <v>25</v>
       </c>
       <c r="U3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="W3" t="b">
         <v>0</v>
@@ -1512,19 +1543,16 @@
       <c r="X3" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
+      <c r="Y3" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -1536,22 +1564,22 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>300</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>40</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>61</v>
       </c>
       <c r="L4" t="s">
         <v>25</v>
@@ -1559,8 +1587,8 @@
       <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="N4">
-        <v>5.0199999999999996</v>
+      <c r="N4" t="s">
+        <v>25</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>
@@ -1581,10 +1609,10 @@
         <v>25</v>
       </c>
       <c r="U4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="W4" t="b">
         <v>0</v>
@@ -1592,14 +1620,11 @@
       <c r="X4" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y4" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1619,7 +1644,7 @@
         <v>23</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>300</v>
@@ -1640,7 +1665,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>11.11</v>
+        <v>2.5</v>
       </c>
       <c r="O5" t="s">
         <v>25</v>
@@ -1676,15 +1701,15 @@
         <v>167</v>
       </c>
       <c r="Z5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1702,13 +1727,13 @@
         <v>4</v>
       </c>
       <c r="H6">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
         <v>25</v>
@@ -1720,7 +1745,7 @@
         <v>25</v>
       </c>
       <c r="N6">
-        <v>5.4</v>
+        <v>3.89</v>
       </c>
       <c r="O6" t="s">
         <v>25</v>
@@ -1741,10 +1766,10 @@
         <v>25</v>
       </c>
       <c r="U6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="W6" t="b">
         <v>0</v>
@@ -1755,13 +1780,16 @@
       <c r="Y6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -1776,16 +1804,16 @@
         <v>23</v>
       </c>
       <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>300</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
         <v>25</v>
@@ -1797,7 +1825,7 @@
         <v>25</v>
       </c>
       <c r="N7">
-        <v>5.6</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="O7" t="s">
         <v>25</v>
@@ -1818,10 +1846,10 @@
         <v>25</v>
       </c>
       <c r="U7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="W7" t="b">
         <v>0</v>
@@ -1832,16 +1860,19 @@
       <c r="Y7" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>60</v>
@@ -1853,16 +1884,16 @@
         <v>23</v>
       </c>
       <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>300</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
         <v>25</v>
@@ -1873,8 +1904,8 @@
       <c r="M8" t="s">
         <v>25</v>
       </c>
-      <c r="N8" t="s">
-        <v>25</v>
+      <c r="N8">
+        <v>11.11</v>
       </c>
       <c r="O8" t="s">
         <v>25</v>
@@ -1895,30 +1926,30 @@
         <v>25</v>
       </c>
       <c r="U8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="W8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="Y8" t="s">
         <v>167</v>
       </c>
       <c r="Z8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -1930,19 +1961,19 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>178</v>
+        <v>266</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="K9" t="s">
         <v>25</v>
@@ -1954,7 +1985,7 @@
         <v>25</v>
       </c>
       <c r="N9">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="O9" t="s">
         <v>25</v>
@@ -1971,8 +2002,8 @@
       <c r="S9" t="s">
         <v>25</v>
       </c>
-      <c r="T9">
-        <v>6</v>
+      <c r="T9" t="s">
+        <v>25</v>
       </c>
       <c r="U9" t="b">
         <v>0</v>
@@ -1989,16 +2020,13 @@
       <c r="Y9" t="s">
         <v>167</v>
       </c>
-      <c r="Z9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -2010,19 +2038,19 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>178</v>
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
         <v>25</v>
@@ -2034,7 +2062,7 @@
         <v>25</v>
       </c>
       <c r="N10">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="O10" t="s">
         <v>25</v>
@@ -2051,8 +2079,8 @@
       <c r="S10" t="s">
         <v>25</v>
       </c>
-      <c r="T10">
-        <v>10</v>
+      <c r="T10" t="s">
+        <v>25</v>
       </c>
       <c r="U10" t="b">
         <v>0</v>
@@ -2069,19 +2097,16 @@
       <c r="Y10" t="s">
         <v>167</v>
       </c>
-      <c r="Z10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>60</v>
@@ -2093,28 +2118,28 @@
         <v>23</v>
       </c>
       <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>178</v>
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J11">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
         <v>25</v>
       </c>
-      <c r="L11">
-        <v>43</v>
-      </c>
-      <c r="M11" t="b">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>6.3</v>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" t="s">
+        <v>25</v>
       </c>
       <c r="O11" t="s">
         <v>25</v>
@@ -2141,57 +2166,60 @@
         <v>25</v>
       </c>
       <c r="W11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="Y11" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12">
-        <v>3397</v>
+        <v>178</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>16</v>
-      </c>
-      <c r="K12">
-        <v>68</v>
-      </c>
-      <c r="L12">
-        <v>97</v>
-      </c>
-      <c r="M12" t="b">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>25</v>
+        <v>72</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12">
+        <v>6</v>
       </c>
       <c r="O12" t="s">
         <v>25</v>
@@ -2208,14 +2236,14 @@
       <c r="S12" t="s">
         <v>25</v>
       </c>
-      <c r="T12" t="s">
-        <v>25</v>
+      <c r="T12">
+        <v>6</v>
       </c>
       <c r="U12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="W12" t="b">
         <v>0</v>
@@ -2227,51 +2255,51 @@
         <v>167</v>
       </c>
       <c r="Z12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13">
-        <v>603</v>
+        <v>178</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>16</v>
-      </c>
-      <c r="K13">
-        <v>78</v>
-      </c>
-      <c r="L13">
-        <v>97</v>
-      </c>
-      <c r="M13" t="b">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
-        <v>25</v>
+        <v>72</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13">
+        <v>6</v>
       </c>
       <c r="O13" t="s">
         <v>25</v>
@@ -2288,14 +2316,14 @@
       <c r="S13" t="s">
         <v>25</v>
       </c>
-      <c r="T13" t="s">
-        <v>25</v>
+      <c r="T13">
+        <v>10</v>
       </c>
       <c r="U13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="W13" t="b">
         <v>0</v>
@@ -2306,13 +2334,16 @@
       <c r="Y13" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -2324,31 +2355,31 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14">
-        <v>1967</v>
+        <v>178</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>8</v>
-      </c>
-      <c r="K14">
-        <v>99.5</v>
+        <v>72</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="M14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>6.3</v>
       </c>
       <c r="O14" t="s">
         <v>25</v>
@@ -2383,49 +2414,46 @@
       <c r="Y14" t="s">
         <v>167</v>
       </c>
-      <c r="Z14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15">
-        <v>1967</v>
+        <v>3397</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K15">
-        <v>99.3</v>
+        <v>68</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
         <v>25</v>
@@ -2449,10 +2477,10 @@
         <v>25</v>
       </c>
       <c r="U15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="W15" t="b">
         <v>0</v>
@@ -2464,48 +2492,48 @@
         <v>167</v>
       </c>
       <c r="Z15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="H16">
-        <v>1967</v>
+        <v>603</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K16">
-        <v>99.2</v>
+        <v>78</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
         <v>25</v>
@@ -2529,10 +2557,10 @@
         <v>25</v>
       </c>
       <c r="U16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="W16" t="b">
         <v>0</v>
@@ -2543,52 +2571,49 @@
       <c r="Y16" t="s">
         <v>167</v>
       </c>
-      <c r="Z16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" t="s">
-        <v>25</v>
+        <v>47</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>1967</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>25</v>
-      </c>
-      <c r="K17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17">
-        <v>11.2</v>
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <v>99.5</v>
+      </c>
+      <c r="L17">
+        <v>100</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>25</v>
       </c>
       <c r="O17" t="s">
         <v>25</v>
@@ -2608,14 +2633,14 @@
       <c r="T17" t="s">
         <v>25</v>
       </c>
-      <c r="U17" t="s">
-        <v>25</v>
+      <c r="U17" t="b">
+        <v>0</v>
       </c>
       <c r="V17" t="s">
         <v>25</v>
       </c>
-      <c r="W17" t="s">
-        <v>25</v>
+      <c r="W17" t="b">
+        <v>0</v>
       </c>
       <c r="X17" t="s">
         <v>25</v>
@@ -2624,51 +2649,51 @@
         <v>167</v>
       </c>
       <c r="Z17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
-      <c r="H18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" t="s">
-        <v>25</v>
+      <c r="H18">
+        <v>1967</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>21</v>
-      </c>
-      <c r="K18" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="K18">
+        <v>99.3</v>
       </c>
       <c r="L18">
-        <v>65</v>
-      </c>
-      <c r="M18" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18">
-        <v>4.7</v>
+        <v>100</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>25</v>
       </c>
       <c r="O18" t="s">
         <v>25</v>
@@ -2689,13 +2714,13 @@
         <v>25</v>
       </c>
       <c r="U18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>36</v>
-      </c>
-      <c r="W18" t="s">
-        <v>25</v>
+        <v>25</v>
+      </c>
+      <c r="W18" t="b">
+        <v>0</v>
       </c>
       <c r="X18" t="s">
         <v>25</v>
@@ -2703,49 +2728,52 @@
       <c r="Y18" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
-      <c r="H19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" t="s">
-        <v>25</v>
+      <c r="H19">
+        <v>1967</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>13</v>
-      </c>
-      <c r="K19" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <v>99.2</v>
       </c>
       <c r="L19">
-        <v>95</v>
-      </c>
-      <c r="M19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19">
-        <v>3.1</v>
+        <v>100</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>25</v>
       </c>
       <c r="O19" t="s">
         <v>25</v>
@@ -2766,13 +2794,13 @@
         <v>25</v>
       </c>
       <c r="U19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>36</v>
-      </c>
-      <c r="W19" t="s">
-        <v>25</v>
+        <v>25</v>
+      </c>
+      <c r="W19" t="b">
+        <v>0</v>
       </c>
       <c r="X19" t="s">
         <v>25</v>
@@ -2780,19 +2808,22 @@
       <c r="Y19" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
@@ -2801,52 +2832,25 @@
         <v>23</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>266</v>
-      </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-      <c r="J20">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="K20">
-        <v>72.599999999999994</v>
+        <v>9.52</v>
       </c>
       <c r="L20">
-        <v>97</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="M20" t="b">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>2.8</v>
-      </c>
-      <c r="O20" t="s">
-        <v>25</v>
-      </c>
-      <c r="P20" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>25</v>
-      </c>
-      <c r="R20" t="s">
-        <v>25</v>
-      </c>
-      <c r="S20" t="s">
-        <v>25</v>
-      </c>
-      <c r="T20" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="U20" t="b">
         <v>1</v>
       </c>
       <c r="V20" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="W20" t="b">
         <v>0</v>
@@ -2855,75 +2859,48 @@
         <v>25</v>
       </c>
       <c r="Y20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
         <v>23</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>62</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>46.8</v>
+        <v>19.05</v>
       </c>
       <c r="L21">
-        <v>87.1</v>
+        <v>76.98</v>
       </c>
       <c r="M21" t="b">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="O21" t="s">
-        <v>25</v>
-      </c>
-      <c r="P21" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>25</v>
-      </c>
-      <c r="R21" t="s">
-        <v>25</v>
-      </c>
-      <c r="S21" t="s">
-        <v>25</v>
-      </c>
-      <c r="T21" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="U21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="W21" t="b">
         <v>0</v>
@@ -2932,72 +2909,48 @@
         <v>25</v>
       </c>
       <c r="Y21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="E22" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>151</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>62.3</v>
+        <v>19.05</v>
       </c>
       <c r="L22">
-        <v>94</v>
+        <v>82.14</v>
       </c>
       <c r="M22" t="b">
         <v>1</v>
       </c>
-      <c r="O22">
-        <v>4.7</v>
-      </c>
-      <c r="P22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>25</v>
-      </c>
-      <c r="R22" t="s">
-        <v>25</v>
-      </c>
-      <c r="S22" t="s">
-        <v>25</v>
-      </c>
-      <c r="T22" t="s">
-        <v>25</v>
-      </c>
       <c r="U22" t="b">
         <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="W22" t="b">
         <v>0</v>
@@ -3006,21 +2959,21 @@
         <v>25</v>
       </c>
       <c r="Y22" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="C23" t="s">
         <v>138</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="E23" t="s">
         <v>22</v>
@@ -3029,49 +2982,25 @@
         <v>23</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>151</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>56.3</v>
+        <v>9.52</v>
       </c>
       <c r="L23">
-        <v>88.7</v>
+        <v>76.98</v>
       </c>
       <c r="M23" t="b">
         <v>1</v>
       </c>
-      <c r="O23">
-        <v>12.1</v>
-      </c>
-      <c r="P23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>25</v>
-      </c>
-      <c r="R23" t="s">
-        <v>25</v>
-      </c>
-      <c r="S23" t="s">
-        <v>25</v>
-      </c>
-      <c r="T23" t="s">
-        <v>25</v>
-      </c>
       <c r="U23" t="b">
         <v>1</v>
       </c>
       <c r="V23" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="W23" t="b">
         <v>0</v>
@@ -3080,21 +3009,21 @@
         <v>25</v>
       </c>
       <c r="Y23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="C24" t="s">
         <v>133</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="E24" t="s">
         <v>139</v>
@@ -3103,65 +3032,807 @@
         <v>23</v>
       </c>
       <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>42</v>
+      </c>
+      <c r="K24">
+        <v>11.9</v>
+      </c>
+      <c r="L24">
+        <v>83.73</v>
+      </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="U24" t="b">
+        <v>1</v>
+      </c>
+      <c r="V24" t="s">
+        <v>35</v>
+      </c>
+      <c r="W24" t="b">
+        <v>0</v>
+      </c>
+      <c r="X24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>42</v>
+      </c>
+      <c r="K25">
+        <v>21.43</v>
+      </c>
+      <c r="L25">
+        <v>88.1</v>
+      </c>
+      <c r="M25" t="b">
+        <v>1</v>
+      </c>
+      <c r="U25" t="b">
+        <v>1</v>
+      </c>
+      <c r="V25" t="s">
+        <v>35</v>
+      </c>
+      <c r="W25" t="b">
+        <v>0</v>
+      </c>
+      <c r="X25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>42</v>
+      </c>
+      <c r="K26">
+        <v>23.81</v>
+      </c>
+      <c r="L26">
+        <v>78.569999999999993</v>
+      </c>
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
+      <c r="U26" t="b">
+        <v>1</v>
+      </c>
+      <c r="V26" t="s">
+        <v>35</v>
+      </c>
+      <c r="W26" t="b">
+        <v>0</v>
+      </c>
+      <c r="X26" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>42</v>
+      </c>
+      <c r="K27">
+        <v>40.479999999999997</v>
+      </c>
+      <c r="L27">
+        <v>97.22</v>
+      </c>
+      <c r="M27" t="b">
+        <v>1</v>
+      </c>
+      <c r="U27" t="b">
+        <v>1</v>
+      </c>
+      <c r="V27" t="s">
+        <v>35</v>
+      </c>
+      <c r="W27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X27" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28">
+        <v>25</v>
+      </c>
+      <c r="K28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28">
+        <v>11.2</v>
+      </c>
+      <c r="O28" t="s">
+        <v>25</v>
+      </c>
+      <c r="P28" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>25</v>
+      </c>
+      <c r="R28" t="s">
+        <v>25</v>
+      </c>
+      <c r="S28" t="s">
+        <v>25</v>
+      </c>
+      <c r="T28" t="s">
+        <v>25</v>
+      </c>
+      <c r="U28" t="s">
+        <v>25</v>
+      </c>
+      <c r="V28" t="s">
+        <v>25</v>
+      </c>
+      <c r="W28" t="s">
+        <v>25</v>
+      </c>
+      <c r="X28" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29">
         <v>2</v>
       </c>
-      <c r="H24">
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29">
+        <v>21</v>
+      </c>
+      <c r="K29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29">
+        <v>65</v>
+      </c>
+      <c r="M29" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29">
+        <v>4.7</v>
+      </c>
+      <c r="O29" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>25</v>
+      </c>
+      <c r="R29" t="s">
+        <v>25</v>
+      </c>
+      <c r="S29" t="s">
+        <v>25</v>
+      </c>
+      <c r="T29" t="s">
+        <v>25</v>
+      </c>
+      <c r="U29" t="b">
+        <v>1</v>
+      </c>
+      <c r="V29" t="s">
+        <v>36</v>
+      </c>
+      <c r="W29" t="s">
+        <v>25</v>
+      </c>
+      <c r="X29" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30">
+        <v>13</v>
+      </c>
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30">
+        <v>95</v>
+      </c>
+      <c r="M30" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30">
+        <v>3.1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>25</v>
+      </c>
+      <c r="P30" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>25</v>
+      </c>
+      <c r="R30" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30" t="s">
+        <v>25</v>
+      </c>
+      <c r="T30" t="s">
+        <v>25</v>
+      </c>
+      <c r="U30" t="b">
+        <v>1</v>
+      </c>
+      <c r="V30" t="s">
+        <v>36</v>
+      </c>
+      <c r="W30" t="s">
+        <v>25</v>
+      </c>
+      <c r="X30" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>266</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <v>20</v>
+      </c>
+      <c r="K31">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="L31">
+        <v>97</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>2.8</v>
+      </c>
+      <c r="O31" t="s">
+        <v>25</v>
+      </c>
+      <c r="P31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>25</v>
+      </c>
+      <c r="R31" t="s">
+        <v>25</v>
+      </c>
+      <c r="S31" t="s">
+        <v>25</v>
+      </c>
+      <c r="T31" t="s">
+        <v>25</v>
+      </c>
+      <c r="U31" t="b">
+        <v>1</v>
+      </c>
+      <c r="V31" t="s">
+        <v>162</v>
+      </c>
+      <c r="W31" t="b">
+        <v>0</v>
+      </c>
+      <c r="X31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>62</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>8</v>
+      </c>
+      <c r="K32">
+        <v>46.8</v>
+      </c>
+      <c r="L32">
+        <v>87.1</v>
+      </c>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="O32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>25</v>
+      </c>
+      <c r="R32" t="s">
+        <v>25</v>
+      </c>
+      <c r="S32" t="s">
+        <v>25</v>
+      </c>
+      <c r="T32" t="s">
+        <v>25</v>
+      </c>
+      <c r="U32" t="b">
+        <v>0</v>
+      </c>
+      <c r="V32" t="s">
+        <v>25</v>
+      </c>
+      <c r="W32" t="b">
+        <v>0</v>
+      </c>
+      <c r="X32" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
         <v>151</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>23</v>
+      </c>
+      <c r="K33">
+        <v>62.3</v>
+      </c>
+      <c r="L33">
+        <v>94</v>
+      </c>
+      <c r="M33" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>4.7</v>
+      </c>
+      <c r="P33" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>25</v>
+      </c>
+      <c r="R33" t="s">
+        <v>25</v>
+      </c>
+      <c r="S33" t="s">
+        <v>25</v>
+      </c>
+      <c r="T33" t="s">
+        <v>25</v>
+      </c>
+      <c r="U33" t="b">
+        <v>1</v>
+      </c>
+      <c r="V33" t="s">
+        <v>162</v>
+      </c>
+      <c r="W33" t="b">
+        <v>0</v>
+      </c>
+      <c r="X33" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>151</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>14</v>
+      </c>
+      <c r="K34">
+        <v>56.3</v>
+      </c>
+      <c r="L34">
+        <v>88.7</v>
+      </c>
+      <c r="M34" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>12.1</v>
+      </c>
+      <c r="P34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>25</v>
+      </c>
+      <c r="R34" t="s">
+        <v>25</v>
+      </c>
+      <c r="S34" t="s">
+        <v>25</v>
+      </c>
+      <c r="T34" t="s">
+        <v>25</v>
+      </c>
+      <c r="U34" t="b">
+        <v>1</v>
+      </c>
+      <c r="V34" t="s">
+        <v>162</v>
+      </c>
+      <c r="W34" t="b">
+        <v>0</v>
+      </c>
+      <c r="X34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>151</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
         <v>16</v>
       </c>
-      <c r="K24">
+      <c r="K35">
         <v>45.7</v>
       </c>
-      <c r="L24">
+      <c r="L35">
         <v>75.5</v>
       </c>
-      <c r="M24" t="b">
-        <v>1</v>
-      </c>
-      <c r="O24">
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35">
         <v>7.4</v>
       </c>
-      <c r="P24" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>25</v>
-      </c>
-      <c r="R24" t="s">
-        <v>25</v>
-      </c>
-      <c r="S24" t="s">
-        <v>25</v>
-      </c>
-      <c r="T24" t="s">
-        <v>25</v>
-      </c>
-      <c r="U24" t="b">
-        <v>1</v>
-      </c>
-      <c r="V24" t="s">
+      <c r="P35" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>25</v>
+      </c>
+      <c r="R35" t="s">
+        <v>25</v>
+      </c>
+      <c r="S35" t="s">
+        <v>25</v>
+      </c>
+      <c r="T35" t="s">
+        <v>25</v>
+      </c>
+      <c r="U35" t="b">
+        <v>1</v>
+      </c>
+      <c r="V35" t="s">
         <v>162</v>
       </c>
-      <c r="W24" t="b">
-        <v>0</v>
-      </c>
-      <c r="X24" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y24" t="s">
+      <c r="W35" t="b">
+        <v>0</v>
+      </c>
+      <c r="X35" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y35" t="s">
         <v>167</v>
       </c>
     </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:Y19">
+  <sortState ref="A5:Y30">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3169,18 +3840,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="84" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -3191,7 +3862,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3199,7 +3870,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3210,7 +3881,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3221,7 +3892,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3232,7 +3903,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3243,7 +3914,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3254,7 +3925,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3262,7 +3933,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3270,7 +3941,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -3278,7 +3949,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>117</v>
       </c>
@@ -3286,7 +3957,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -3294,7 +3965,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -3302,7 +3973,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -3310,7 +3981,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -3318,7 +3989,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -3326,7 +3997,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -3334,7 +4005,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>164</v>
       </c>
@@ -3342,7 +4013,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -3350,7 +4021,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -3358,7 +4029,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -3366,7 +4037,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -3374,7 +4045,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -3385,7 +4056,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -3393,7 +4064,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -3404,7 +4075,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>166</v>
       </c>
@@ -3412,7 +4083,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -3429,18 +4100,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="84" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,7 +4122,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3459,7 +4130,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3470,7 +4141,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3481,7 +4152,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3492,7 +4163,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3503,7 +4174,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3514,7 +4185,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3522,7 +4193,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3530,7 +4201,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -3541,7 +4212,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -3549,7 +4220,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -3557,7 +4228,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -3565,7 +4236,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -3573,7 +4244,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -3581,7 +4252,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -3589,7 +4260,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3597,7 +4268,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -3605,7 +4276,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>164</v>
       </c>
@@ -3613,7 +4284,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -3621,7 +4292,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>165</v>
       </c>
@@ -3629,7 +4300,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -3646,18 +4317,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -3668,7 +4339,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3676,7 +4347,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3687,7 +4358,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3698,7 +4369,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3709,7 +4380,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3720,7 +4391,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3731,7 +4402,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>142</v>
       </c>
@@ -3739,7 +4410,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>143</v>
       </c>
@@ -3747,7 +4418,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>144</v>
       </c>
@@ -3755,7 +4426,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>145</v>
       </c>
@@ -3763,7 +4434,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>146</v>
       </c>
@@ -3771,7 +4442,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>147</v>
       </c>
@@ -3779,7 +4450,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>148</v>
       </c>
@@ -3787,7 +4458,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -3795,7 +4466,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -3803,7 +4474,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>151</v>
       </c>

--- a/data/Literature_Review.xlsx
+++ b/data/Literature_Review.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\JFL\Documents\Northland\NRS Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jfl125\Northland\AgePrecision\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9B4A5D-1C90-4DA3-BA9B-4D34B33A1F76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12960" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="188">
   <si>
     <t>studyID</t>
   </si>
@@ -124,30 +125,15 @@
     <t>Murray Cod</t>
   </si>
   <si>
-    <t>Blue Grenadier</t>
-  </si>
-  <si>
-    <t>Pink Ling</t>
-  </si>
-  <si>
-    <t>Gemfish</t>
-  </si>
-  <si>
     <t>biasmethod</t>
   </si>
   <si>
     <t>agebiasplot</t>
   </si>
   <si>
-    <t>pairedt</t>
-  </si>
-  <si>
     <t>No PDF, used abstract and reports in Andersonetal_1992a</t>
   </si>
   <si>
-    <t>Abstract result different than that from Andersonetal_1992a (could be different processing methods)</t>
-  </si>
-  <si>
     <t>Golden Perch</t>
   </si>
   <si>
@@ -427,15 +413,9 @@
     <t>validn</t>
   </si>
   <si>
-    <t>Kiyi</t>
-  </si>
-  <si>
     <t>scales</t>
   </si>
   <si>
-    <t>pressed</t>
-  </si>
-  <si>
     <t>herbst_comparison_2011</t>
   </si>
   <si>
@@ -454,9 +434,6 @@
     <t>dorsal</t>
   </si>
   <si>
-    <t>cut-and-burnt</t>
-  </si>
-  <si>
     <t>var</t>
   </si>
   <si>
@@ -572,12 +549,57 @@
   </si>
   <si>
     <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>beamish_method_1981</t>
+  </si>
+  <si>
+    <t>beamish_use_1981</t>
+  </si>
+  <si>
+    <t>Walleye Pollock</t>
+  </si>
+  <si>
+    <t>Pacific Cod</t>
+  </si>
+  <si>
+    <t>Albacore</t>
+  </si>
+  <si>
+    <t>No Precision Metric</t>
+  </si>
+  <si>
+    <t>beckman_age_1990</t>
+  </si>
+  <si>
+    <t>Black Drum</t>
+  </si>
+  <si>
+    <t>ACV and AD are not zero. Very small</t>
+  </si>
+  <si>
+    <t>belanger_comparison_1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walleye </t>
+  </si>
+  <si>
+    <t>blackwell_assessment_2016</t>
+  </si>
+  <si>
+    <t>Northern Pike</t>
+  </si>
+  <si>
+    <t>metapterygoid bones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd reader assigned when no agreement was reached </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -898,7 +920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -941,7 +963,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <v>2005</v>
@@ -964,7 +986,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <v>1992</v>
@@ -984,7 +1006,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B4">
         <v>1992</v>
@@ -1004,13 +1026,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>2004</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -1024,7 +1046,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <v>1999</v>
@@ -1033,7 +1055,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1044,7 +1066,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B7">
         <v>2011</v>
@@ -1053,7 +1075,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1064,7 +1086,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B8">
         <v>1994</v>
@@ -1073,7 +1095,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1084,7 +1106,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B9">
         <v>1987</v>
@@ -1102,12 +1124,12 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B10">
         <v>1989</v>
@@ -1116,7 +1138,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1125,12 +1147,12 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B11">
         <v>2017</v>
@@ -1139,7 +1161,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1150,7 +1172,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B12">
         <v>2018</v>
@@ -1159,7 +1181,7 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -1167,7 +1189,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B13">
         <v>2011</v>
@@ -1176,7 +1198,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -1194,7 +1216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -1208,10 +1230,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1219,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1227,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1235,7 +1257,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1243,7 +1265,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1251,7 +1273,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1259,7 +1281,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1267,7 +1289,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1277,24 +1299,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Z45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -1339,22 +1361,22 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>10</v>
@@ -1363,22 +1385,22 @@
         <v>11</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>14</v>
@@ -1387,7 +1409,7 @@
         <v>15</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>24</v>
@@ -1395,22 +1417,22 @@
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
@@ -1467,27 +1489,27 @@
         <v>25</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
@@ -1544,27 +1566,27 @@
         <v>25</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
@@ -1621,12 +1643,12 @@
         <v>25</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -1635,7 +1657,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -1689,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="V5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W5" t="b">
         <v>0</v>
@@ -1698,15 +1720,15 @@
         <v>25</v>
       </c>
       <c r="Y5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="Z5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -1715,7 +1737,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
@@ -1769,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="V6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W6" t="b">
         <v>0</v>
@@ -1778,15 +1800,15 @@
         <v>25</v>
       </c>
       <c r="Y6" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="Z6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -1795,7 +1817,7 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -1849,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="V7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W7" t="b">
         <v>0</v>
@@ -1858,15 +1880,15 @@
         <v>25</v>
       </c>
       <c r="Y7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="Z7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -1875,7 +1897,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -1929,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="V8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W8" t="b">
         <v>0</v>
@@ -1938,15 +1960,15 @@
         <v>25</v>
       </c>
       <c r="Y8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="Z8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -1955,7 +1977,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
@@ -2018,21 +2040,21 @@
         <v>25</v>
       </c>
       <c r="Y9" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -2095,21 +2117,21 @@
         <v>25</v>
       </c>
       <c r="Y10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
@@ -2169,33 +2191,33 @@
         <v>1</v>
       </c>
       <c r="X11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Y11" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="Z11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2252,30 +2274,30 @@
         <v>25</v>
       </c>
       <c r="Y12" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="Z12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2332,24 +2354,24 @@
         <v>25</v>
       </c>
       <c r="Y13" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="Z13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
@@ -2412,21 +2434,21 @@
         <v>25</v>
       </c>
       <c r="Y14" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
@@ -2480,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="V15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W15" t="b">
         <v>0</v>
@@ -2489,18 +2511,18 @@
         <v>25</v>
       </c>
       <c r="Y15" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="Z15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -2509,7 +2531,7 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
         <v>23</v>
@@ -2560,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="V16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W16" t="b">
         <v>0</v>
@@ -2569,27 +2591,27 @@
         <v>25</v>
       </c>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2646,30 +2668,30 @@
         <v>25</v>
       </c>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="Z17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2726,30 +2748,30 @@
         <v>25</v>
       </c>
       <c r="Y18" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="Z18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2806,24 +2828,24 @@
         <v>25</v>
       </c>
       <c r="Y19" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="Z19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
@@ -2850,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="V20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W20" t="b">
         <v>0</v>
@@ -2859,21 +2881,21 @@
         <v>25</v>
       </c>
       <c r="Y20" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
         <v>22</v>
@@ -2900,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="V21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W21" t="b">
         <v>0</v>
@@ -2909,21 +2931,21 @@
         <v>25</v>
       </c>
       <c r="Y21" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
         <v>22</v>
@@ -2950,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W22" t="b">
         <v>0</v>
@@ -2959,21 +2981,21 @@
         <v>25</v>
       </c>
       <c r="Y22" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E23" t="s">
         <v>22</v>
@@ -3000,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="V23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W23" t="b">
         <v>0</v>
@@ -3009,24 +3031,24 @@
         <v>25</v>
       </c>
       <c r="Y23" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" t="s">
         <v>133</v>
       </c>
-      <c r="D24" t="s">
-        <v>140</v>
-      </c>
       <c r="E24" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -3050,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="V24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W24" t="b">
         <v>0</v>
@@ -3059,18 +3081,18 @@
         <v>25</v>
       </c>
       <c r="Y24" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
@@ -3100,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W25" t="b">
         <v>0</v>
@@ -3109,24 +3131,24 @@
         <v>25</v>
       </c>
       <c r="Y25" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C26" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F26" t="s">
         <v>23</v>
@@ -3150,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="V26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W26" t="b">
         <v>0</v>
@@ -3159,21 +3181,21 @@
         <v>25</v>
       </c>
       <c r="Y26" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C27" t="s">
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
         <v>22</v>
@@ -3200,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="V27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W27" t="b">
         <v>0</v>
@@ -3209,365 +3231,125 @@
         <v>25</v>
       </c>
       <c r="Y27" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J28">
-        <v>25</v>
-      </c>
-      <c r="K28" t="s">
-        <v>25</v>
-      </c>
-      <c r="L28" t="s">
-        <v>25</v>
-      </c>
-      <c r="M28" t="s">
-        <v>25</v>
-      </c>
-      <c r="N28">
-        <v>11.2</v>
-      </c>
-      <c r="O28" t="s">
-        <v>25</v>
-      </c>
-      <c r="P28" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>25</v>
-      </c>
-      <c r="R28" t="s">
-        <v>25</v>
-      </c>
-      <c r="S28" t="s">
-        <v>25</v>
-      </c>
-      <c r="T28" t="s">
-        <v>25</v>
-      </c>
-      <c r="U28" t="s">
-        <v>25</v>
-      </c>
-      <c r="V28" t="s">
-        <v>25</v>
-      </c>
-      <c r="W28" t="s">
-        <v>25</v>
-      </c>
-      <c r="X28" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="Y28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z28" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s">
         <v>22</v>
       </c>
-      <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" t="s">
-        <v>25</v>
-      </c>
-      <c r="J29">
-        <v>21</v>
-      </c>
-      <c r="K29" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29">
-        <v>65</v>
-      </c>
-      <c r="M29" t="s">
-        <v>25</v>
-      </c>
-      <c r="N29">
-        <v>4.7</v>
-      </c>
-      <c r="O29" t="s">
-        <v>25</v>
-      </c>
-      <c r="P29" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>25</v>
-      </c>
-      <c r="R29" t="s">
-        <v>25</v>
-      </c>
-      <c r="S29" t="s">
-        <v>25</v>
-      </c>
-      <c r="T29" t="s">
-        <v>25</v>
-      </c>
-      <c r="U29" t="b">
-        <v>1</v>
-      </c>
-      <c r="V29" t="s">
-        <v>36</v>
-      </c>
-      <c r="W29" t="s">
-        <v>25</v>
-      </c>
-      <c r="X29" t="s">
-        <v>25</v>
-      </c>
       <c r="Y29" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="E30" t="s">
         <v>22</v>
       </c>
-      <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" t="s">
-        <v>25</v>
-      </c>
-      <c r="J30">
-        <v>13</v>
-      </c>
-      <c r="K30" t="s">
-        <v>25</v>
-      </c>
-      <c r="L30">
-        <v>95</v>
-      </c>
-      <c r="M30" t="s">
-        <v>25</v>
-      </c>
-      <c r="N30">
-        <v>3.1</v>
-      </c>
-      <c r="O30" t="s">
-        <v>25</v>
-      </c>
-      <c r="P30" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>25</v>
-      </c>
-      <c r="R30" t="s">
-        <v>25</v>
-      </c>
-      <c r="S30" t="s">
-        <v>25</v>
-      </c>
-      <c r="T30" t="s">
-        <v>25</v>
-      </c>
-      <c r="U30" t="b">
-        <v>1</v>
-      </c>
-      <c r="V30" t="s">
-        <v>36</v>
-      </c>
-      <c r="W30" t="s">
-        <v>25</v>
-      </c>
-      <c r="X30" t="s">
-        <v>25</v>
-      </c>
       <c r="Y30" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
         <v>22</v>
       </c>
-      <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31">
-        <v>266</v>
-      </c>
-      <c r="I31">
-        <v>4</v>
-      </c>
-      <c r="J31">
-        <v>20</v>
-      </c>
-      <c r="K31">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="L31">
-        <v>97</v>
-      </c>
-      <c r="M31" t="b">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>2.8</v>
-      </c>
-      <c r="O31" t="s">
-        <v>25</v>
-      </c>
-      <c r="P31" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>25</v>
-      </c>
-      <c r="R31" t="s">
-        <v>25</v>
-      </c>
-      <c r="S31" t="s">
-        <v>25</v>
-      </c>
-      <c r="T31" t="s">
-        <v>25</v>
-      </c>
-      <c r="U31" t="b">
-        <v>1</v>
-      </c>
-      <c r="V31" t="s">
-        <v>162</v>
-      </c>
-      <c r="W31" t="b">
-        <v>0</v>
-      </c>
-      <c r="X31" t="s">
-        <v>25</v>
-      </c>
       <c r="Y31" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="C32" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="F32" t="s">
         <v>23</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>62</v>
-      </c>
-      <c r="I32">
-        <v>3</v>
+        <v>1080</v>
+      </c>
+      <c r="I32" t="s">
+        <v>25</v>
       </c>
       <c r="J32">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>46.8</v>
+        <v>92</v>
       </c>
       <c r="L32">
-        <v>87.1</v>
+        <v>94</v>
       </c>
       <c r="M32" t="b">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="O32" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32">
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="P32" t="s">
         <v>25</v>
@@ -3581,8 +3363,8 @@
       <c r="S32" t="s">
         <v>25</v>
       </c>
-      <c r="T32" t="s">
-        <v>25</v>
+      <c r="T32">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="U32" t="b">
         <v>0</v>
@@ -3597,98 +3379,41 @@
         <v>25</v>
       </c>
       <c r="Y32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E33" t="s">
-        <v>141</v>
-      </c>
-      <c r="F33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
-        <v>151</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>23</v>
-      </c>
-      <c r="K33">
-        <v>62.3</v>
-      </c>
-      <c r="L33">
-        <v>94</v>
-      </c>
-      <c r="M33" t="b">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>4.7</v>
-      </c>
-      <c r="P33" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>25</v>
-      </c>
-      <c r="R33" t="s">
-        <v>25</v>
-      </c>
-      <c r="S33" t="s">
-        <v>25</v>
-      </c>
-      <c r="T33" t="s">
-        <v>25</v>
-      </c>
-      <c r="U33" t="b">
-        <v>1</v>
-      </c>
-      <c r="V33" t="s">
-        <v>162</v>
-      </c>
-      <c r="W33" t="b">
-        <v>0</v>
-      </c>
-      <c r="X33" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="Y33" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="F34" t="s">
         <v>23</v>
@@ -3697,72 +3422,45 @@
         <v>2</v>
       </c>
       <c r="H34">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K34">
-        <v>56.3</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="L34">
-        <v>88.7</v>
-      </c>
-      <c r="M34" t="b">
-        <v>1</v>
+        <v>68.7</v>
       </c>
       <c r="O34">
-        <v>12.1</v>
-      </c>
-      <c r="P34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>25</v>
-      </c>
-      <c r="R34" t="s">
-        <v>25</v>
-      </c>
-      <c r="S34" t="s">
-        <v>25</v>
-      </c>
-      <c r="T34" t="s">
-        <v>25</v>
-      </c>
-      <c r="U34" t="b">
-        <v>1</v>
-      </c>
-      <c r="V34" t="s">
-        <v>162</v>
-      </c>
-      <c r="W34" t="b">
-        <v>0</v>
-      </c>
-      <c r="X34" t="s">
-        <v>25</v>
+        <v>17.8</v>
       </c>
       <c r="Y34" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="D35" t="s">
         <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s">
         <v>23</v>
@@ -3771,64 +3469,302 @@
         <v>2</v>
       </c>
       <c r="H35">
+        <v>243</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>11</v>
+      </c>
+      <c r="L35">
+        <v>95.5</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>243</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>10</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>243</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>12</v>
+      </c>
+      <c r="K37">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="L37">
+        <v>97.9</v>
+      </c>
+      <c r="O37">
+        <v>4</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>243</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>11</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
         <v>151</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>14</v>
+      </c>
+      <c r="K39">
+        <v>56.3</v>
+      </c>
+      <c r="L39">
+        <v>88.7</v>
+      </c>
+      <c r="M39" t="b">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>12.1</v>
+      </c>
+      <c r="P39" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>25</v>
+      </c>
+      <c r="R39" t="s">
+        <v>25</v>
+      </c>
+      <c r="S39" t="s">
+        <v>25</v>
+      </c>
+      <c r="T39" t="s">
+        <v>25</v>
+      </c>
+      <c r="U39" t="b">
+        <v>1</v>
+      </c>
+      <c r="V39" t="s">
+        <v>154</v>
+      </c>
+      <c r="W39" t="b">
+        <v>0</v>
+      </c>
+      <c r="X39" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>151</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
         <v>16</v>
       </c>
-      <c r="K35">
+      <c r="K40">
         <v>45.7</v>
       </c>
-      <c r="L35">
+      <c r="L40">
         <v>75.5</v>
       </c>
-      <c r="M35" t="b">
-        <v>1</v>
-      </c>
-      <c r="O35">
+      <c r="M40" t="b">
+        <v>1</v>
+      </c>
+      <c r="O40">
         <v>7.4</v>
       </c>
-      <c r="P35" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>25</v>
-      </c>
-      <c r="R35" t="s">
-        <v>25</v>
-      </c>
-      <c r="S35" t="s">
-        <v>25</v>
-      </c>
-      <c r="T35" t="s">
-        <v>25</v>
-      </c>
-      <c r="U35" t="b">
-        <v>1</v>
-      </c>
-      <c r="V35" t="s">
-        <v>162</v>
-      </c>
-      <c r="W35" t="b">
-        <v>0</v>
-      </c>
-      <c r="X35" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>180</v>
+      <c r="P40" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>25</v>
+      </c>
+      <c r="R40" t="s">
+        <v>25</v>
+      </c>
+      <c r="S40" t="s">
+        <v>25</v>
+      </c>
+      <c r="T40" t="s">
+        <v>25</v>
+      </c>
+      <c r="U40" t="b">
+        <v>1</v>
+      </c>
+      <c r="V40" t="s">
+        <v>154</v>
+      </c>
+      <c r="W40" t="b">
+        <v>0</v>
+      </c>
+      <c r="X40" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A5:Y30">
+  <sortState ref="A5:Y35">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3837,11 +3773,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3853,13 +3789,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3867,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3875,10 +3811,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3886,10 +3822,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3897,10 +3833,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3908,10 +3844,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3919,10 +3855,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3930,7 +3866,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3938,55 +3874,55 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3994,7 +3930,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4002,15 +3938,15 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -4018,23 +3954,23 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4042,18 +3978,18 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4061,7 +3997,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4069,18 +4005,18 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -4088,7 +4024,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4097,7 +4033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -4113,13 +4049,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4127,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4135,10 +4071,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4146,10 +4082,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4157,10 +4093,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4168,10 +4104,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4179,10 +4115,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4190,7 +4126,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4198,66 +4134,66 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4265,7 +4201,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -4273,15 +4209,15 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -4289,23 +4225,23 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4314,7 +4250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -4330,13 +4266,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4344,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4352,10 +4288,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4363,10 +4299,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4374,10 +4310,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4385,10 +4321,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4396,90 +4332,90 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/data/Literature_Review.xlsx
+++ b/data/Literature_Review.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jfl125\Northland\AgePrecision\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aaaWork\Research\AgePrecision\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9B4A5D-1C90-4DA3-BA9B-4D34B33A1F76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28776" windowHeight="12960" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="248">
   <si>
     <t>studyID</t>
   </si>
@@ -548,27 +547,9 @@
     <t>whole</t>
   </si>
   <si>
-    <t xml:space="preserve">        </t>
-  </si>
-  <si>
-    <t>beamish_method_1981</t>
-  </si>
-  <si>
-    <t>beamish_use_1981</t>
-  </si>
-  <si>
-    <t>Walleye Pollock</t>
-  </si>
-  <si>
-    <t>Pacific Cod</t>
-  </si>
-  <si>
     <t>Albacore</t>
   </si>
   <si>
-    <t>No Precision Metric</t>
-  </si>
-  <si>
     <t>beckman_age_1990</t>
   </si>
   <si>
@@ -578,12 +559,6 @@
     <t>ACV and AD are not zero. Very small</t>
   </si>
   <si>
-    <t>belanger_comparison_1982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walleye </t>
-  </si>
-  <si>
     <t>blackwell_assessment_2016</t>
   </si>
   <si>
@@ -594,12 +569,216 @@
   </si>
   <si>
     <t xml:space="preserve">3rd reader assigned when no agreement was reached </t>
+  </si>
+  <si>
+    <t>NEED TO COME BACK TO TO FINISH</t>
+  </si>
+  <si>
+    <t>zymonas_comparison_2009</t>
+  </si>
+  <si>
+    <t>Bull Trout</t>
+  </si>
+  <si>
+    <t>pressed</t>
+  </si>
+  <si>
+    <t>Calculated PA0 from separate results for different sized fish</t>
+  </si>
+  <si>
+    <t>zhu_comparison_2015</t>
+  </si>
+  <si>
+    <t>cut-and-burnt</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Checked relative to age for two sets of age-classes (broken-stick like model)</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>wilson_age_2001</t>
+  </si>
+  <si>
+    <t>This was for the first reading, results for a second reading were also provided but not included here; results between readings were not provided.</t>
+  </si>
+  <si>
+    <t>williamson_comparison_2010</t>
+  </si>
+  <si>
+    <t>Sauger</t>
+  </si>
+  <si>
+    <t>sanded</t>
+  </si>
+  <si>
+    <t>whiteman_age_2004</t>
+  </si>
+  <si>
+    <t>Shovelnose Sturgeon</t>
+  </si>
+  <si>
+    <t>No ages given, but implied &gt;20 yr range</t>
+  </si>
+  <si>
+    <t>wells_age_2013</t>
+  </si>
+  <si>
+    <t>welch_precision_1993</t>
+  </si>
+  <si>
+    <t>Striped Bass</t>
+  </si>
+  <si>
+    <t>Did check SD relative to length, but not age</t>
+  </si>
+  <si>
+    <t>weber_comparison_2011</t>
+  </si>
+  <si>
+    <t>Common Carp</t>
+  </si>
+  <si>
+    <t>watkins_precision_2015</t>
+  </si>
+  <si>
+    <t>Mountain Whitefish</t>
+  </si>
+  <si>
+    <t>walsh_comparison_2008</t>
+  </si>
+  <si>
+    <t>Rainbow Smelt</t>
+  </si>
+  <si>
+    <t>Reader 1</t>
+  </si>
+  <si>
+    <t>Reader 2</t>
+  </si>
+  <si>
+    <t>whole-cleared</t>
+  </si>
+  <si>
+    <t>Reader 3</t>
+  </si>
+  <si>
+    <t>Reader 1 v Reader 2</t>
+  </si>
+  <si>
+    <t>Reader 3 v Reader 2</t>
+  </si>
+  <si>
+    <t>Reader 3 v Reader 1</t>
+  </si>
+  <si>
+    <t>vilizzi_interpretability_1998</t>
+  </si>
+  <si>
+    <t>Reader B</t>
+  </si>
+  <si>
+    <t>opercles</t>
+  </si>
+  <si>
+    <t>asterisci</t>
+  </si>
+  <si>
+    <t>Reader C</t>
+  </si>
+  <si>
+    <t>Reader D</t>
+  </si>
+  <si>
+    <t>Reader A v Reader B</t>
+  </si>
+  <si>
+    <t>Reader A v Reader C</t>
+  </si>
+  <si>
+    <t>Reader A v Reader D</t>
+  </si>
+  <si>
+    <t>vandergoot_lake_2008</t>
+  </si>
+  <si>
+    <t>Yellow Perch</t>
+  </si>
+  <si>
+    <t>agebiasplot, symmetry</t>
+  </si>
+  <si>
+    <t>cracked</t>
+  </si>
+  <si>
+    <t>Lower Clark Fork River, MT</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Great Slave Lake, NWT</t>
+  </si>
+  <si>
+    <t>Gulf of Mexico, LA</t>
+  </si>
+  <si>
+    <t>Missouri &amp; Kansa Rivers, MO</t>
+  </si>
+  <si>
+    <t>Missouri River, MO</t>
+  </si>
+  <si>
+    <t>USA; Japan</t>
+  </si>
+  <si>
+    <t>Pacific Ocean</t>
+  </si>
+  <si>
+    <t>GA, SC</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>Lower Kootenai River, ID</t>
+  </si>
+  <si>
+    <t>Lake Ontario</t>
+  </si>
+  <si>
+    <t>wakefield_ageing_2017</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Pacific and Indian Oceans</t>
+  </si>
+  <si>
+    <t>THIS ONE NEEDS MORE REVIEW … COMPLICATED</t>
+  </si>
+  <si>
+    <t>Gurra Lakes, Rifer Murray</t>
+  </si>
+  <si>
+    <t>Lake Erie, OH</t>
+  </si>
+  <si>
+    <t>Ask4Data</t>
+  </si>
+  <si>
+    <t>Whether (TRUE) or not (FALSE) we asked the authors for their raw data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -617,12 +796,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -637,10 +822,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -920,25 +1106,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="8" max="8" width="77.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -958,10 +1148,13 @@
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -980,11 +1173,14 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1003,8 +1199,11 @@
       <c r="F3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -1023,8 +1222,11 @@
       <c r="F4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1043,8 +1245,11 @@
       <c r="F5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1063,8 +1268,11 @@
       <c r="F6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -1083,8 +1291,11 @@
       <c r="F7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -1103,8 +1314,11 @@
       <c r="F8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -1123,11 +1337,14 @@
       <c r="F9" t="b">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -1146,11 +1363,14 @@
       <c r="F10" t="b">
         <v>0</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -1169,8 +1389,11 @@
       <c r="F11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -1186,8 +1409,14 @@
       <c r="E12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>128</v>
       </c>
@@ -1205,6 +1434,311 @@
       </c>
       <c r="F13" t="b">
         <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14">
+        <v>2009</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15">
+        <v>2015</v>
+      </c>
+      <c r="C15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16">
+        <v>2001</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17">
+        <v>2010</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18">
+        <v>2004</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19">
+        <v>2013</v>
+      </c>
+      <c r="C19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19" t="s">
+        <v>235</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20">
+        <v>1993</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>236</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21">
+        <v>2011</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>237</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B22">
+        <v>2015</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23">
+        <v>2008</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>239</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24">
+        <v>2017</v>
+      </c>
+      <c r="C24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24" t="s">
+        <v>242</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25">
+        <v>1998</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>244</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26">
+        <v>2008</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>245</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1216,19 +1750,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -1236,7 +1770,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1244,7 +1778,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1252,7 +1786,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1260,7 +1794,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1268,7 +1802,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1276,7 +1810,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1284,11 +1818,19 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1299,43 +1841,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.28515625" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5703125" customWidth="1"/>
-    <col min="26" max="26" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.33203125" customWidth="1"/>
+    <col min="22" max="22" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5546875" customWidth="1"/>
+    <col min="26" max="26" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1415,7 +1957,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>162</v>
       </c>
@@ -1492,7 +2034,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>162</v>
       </c>
@@ -1569,7 +2111,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>162</v>
       </c>
@@ -1646,7 +2188,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -1726,7 +2268,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -1806,7 +2348,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -1886,7 +2428,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1966,7 +2508,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -2043,7 +2585,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -2120,7 +2662,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -2200,7 +2742,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -2280,7 +2822,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -2360,7 +2902,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -2437,7 +2979,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -2517,7 +3059,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -2594,7 +3136,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -2674,7 +3216,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -2754,7 +3296,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -2834,703 +3376,1165 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>4</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>42</v>
       </c>
-      <c r="K20">
+      <c r="I20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="3">
         <v>9.52</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <v>74.599999999999994</v>
       </c>
-      <c r="M20" t="b">
-        <v>1</v>
-      </c>
-      <c r="U20" t="b">
-        <v>1</v>
-      </c>
-      <c r="V20" t="s">
+      <c r="M20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W20" t="b">
-        <v>0</v>
-      </c>
-      <c r="X20" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y20" t="s">
+      <c r="W20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y20" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>4</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>42</v>
       </c>
-      <c r="K21">
+      <c r="I21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="3">
         <v>19.05</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="3">
         <v>76.98</v>
       </c>
-      <c r="M21" t="b">
-        <v>1</v>
-      </c>
-      <c r="U21" t="b">
-        <v>1</v>
-      </c>
-      <c r="V21" t="s">
+      <c r="M21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W21" t="b">
-        <v>0</v>
-      </c>
-      <c r="X21" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y21" t="s">
+      <c r="W21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y21" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>4</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>42</v>
       </c>
-      <c r="K22">
+      <c r="I22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="3">
         <v>19.05</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="3">
         <v>82.14</v>
       </c>
-      <c r="M22" t="b">
-        <v>1</v>
-      </c>
-      <c r="U22" t="b">
-        <v>1</v>
-      </c>
-      <c r="V22" t="s">
+      <c r="M22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W22" t="b">
-        <v>0</v>
-      </c>
-      <c r="X22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y22" t="s">
+      <c r="W22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y22" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>4</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>42</v>
       </c>
-      <c r="K23">
+      <c r="I23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="3">
         <v>9.52</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="3">
         <v>76.98</v>
       </c>
-      <c r="M23" t="b">
-        <v>1</v>
-      </c>
-      <c r="U23" t="b">
-        <v>1</v>
-      </c>
-      <c r="V23" t="s">
+      <c r="M23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W23" t="b">
-        <v>0</v>
-      </c>
-      <c r="X23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y23" t="s">
+      <c r="W23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y23" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>4</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>42</v>
       </c>
-      <c r="K24">
+      <c r="I24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="3">
         <v>11.9</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="3">
         <v>83.73</v>
       </c>
-      <c r="M24" t="b">
-        <v>1</v>
-      </c>
-      <c r="U24" t="b">
-        <v>1</v>
-      </c>
-      <c r="V24" t="s">
+      <c r="M24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W24" t="b">
-        <v>0</v>
-      </c>
-      <c r="X24" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y24" t="s">
+      <c r="W24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y24" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>4</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>42</v>
       </c>
-      <c r="K25">
+      <c r="I25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="3">
         <v>21.43</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="3">
         <v>88.1</v>
       </c>
-      <c r="M25" t="b">
-        <v>1</v>
-      </c>
-      <c r="U25" t="b">
-        <v>1</v>
-      </c>
-      <c r="V25" t="s">
+      <c r="M25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W25" t="b">
-        <v>0</v>
-      </c>
-      <c r="X25" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y25" t="s">
+      <c r="W25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y25" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>4</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>42</v>
       </c>
-      <c r="K26">
+      <c r="I26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="3">
         <v>23.81</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="3">
         <v>78.569999999999993</v>
       </c>
-      <c r="M26" t="b">
-        <v>1</v>
-      </c>
-      <c r="U26" t="b">
-        <v>1</v>
-      </c>
-      <c r="V26" t="s">
+      <c r="M26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W26" t="b">
-        <v>0</v>
-      </c>
-      <c r="X26" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y26" t="s">
+      <c r="W26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y26" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>4</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <v>42</v>
       </c>
-      <c r="K27">
+      <c r="I27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="3">
         <v>40.479999999999997</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="3">
         <v>97.22</v>
       </c>
-      <c r="M27" t="b">
-        <v>1</v>
-      </c>
-      <c r="U27" t="b">
-        <v>1</v>
-      </c>
-      <c r="V27" t="s">
+      <c r="M27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W27" t="b">
-        <v>0</v>
-      </c>
-      <c r="X27" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y27" t="s">
+      <c r="W27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y27" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>173</v>
       </c>
+      <c r="B28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>1080</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28">
+        <v>43</v>
+      </c>
+      <c r="K28">
+        <v>92</v>
+      </c>
+      <c r="L28">
+        <v>94</v>
+      </c>
+      <c r="M28" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="P28" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>25</v>
+      </c>
+      <c r="R28" t="s">
+        <v>25</v>
+      </c>
+      <c r="S28" t="s">
+        <v>25</v>
+      </c>
+      <c r="T28">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="U28" t="b">
+        <v>0</v>
+      </c>
+      <c r="V28" t="s">
+        <v>25</v>
+      </c>
+      <c r="W28" t="b">
+        <v>0</v>
+      </c>
+      <c r="X28" t="s">
+        <v>25</v>
+      </c>
       <c r="Y28" t="s">
         <v>166</v>
       </c>
       <c r="Z28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
         <v>131</v>
       </c>
+      <c r="D29" t="s">
+        <v>133</v>
+      </c>
       <c r="E29" t="s">
         <v>22</v>
       </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>151</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>14</v>
+      </c>
+      <c r="K29">
+        <v>56.3</v>
+      </c>
+      <c r="L29">
+        <v>88.7</v>
+      </c>
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29">
+        <v>12.1</v>
+      </c>
+      <c r="P29" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>25</v>
+      </c>
+      <c r="R29" t="s">
+        <v>25</v>
+      </c>
+      <c r="S29" t="s">
+        <v>25</v>
+      </c>
+      <c r="T29" t="s">
+        <v>25</v>
+      </c>
+      <c r="U29" t="b">
+        <v>1</v>
+      </c>
+      <c r="V29" t="s">
+        <v>154</v>
+      </c>
+      <c r="W29" t="b">
+        <v>0</v>
+      </c>
+      <c r="X29" t="s">
+        <v>25</v>
+      </c>
       <c r="Y29" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>132</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>151</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>16</v>
+      </c>
+      <c r="K30">
+        <v>45.7</v>
+      </c>
+      <c r="L30">
+        <v>75.5</v>
+      </c>
+      <c r="M30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30">
+        <v>7.4</v>
+      </c>
+      <c r="P30" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>25</v>
+      </c>
+      <c r="R30" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30" t="s">
+        <v>25</v>
+      </c>
+      <c r="T30" t="s">
+        <v>25</v>
+      </c>
+      <c r="U30" t="b">
+        <v>1</v>
+      </c>
+      <c r="V30" t="s">
+        <v>154</v>
+      </c>
+      <c r="W30" t="b">
+        <v>0</v>
+      </c>
+      <c r="X30" t="s">
+        <v>25</v>
       </c>
       <c r="Y30" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C31" t="s">
         <v>131</v>
       </c>
+      <c r="D31" t="s">
+        <v>168</v>
+      </c>
       <c r="E31" t="s">
         <v>22</v>
       </c>
+      <c r="F31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>740</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <v>87</v>
+      </c>
+      <c r="L31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31">
+        <v>3.4</v>
+      </c>
+      <c r="P31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>25</v>
+      </c>
+      <c r="R31" t="s">
+        <v>25</v>
+      </c>
+      <c r="S31" t="s">
+        <v>25</v>
+      </c>
+      <c r="T31" t="s">
+        <v>25</v>
+      </c>
+      <c r="U31" t="b">
+        <v>0</v>
+      </c>
+      <c r="V31" t="s">
+        <v>25</v>
+      </c>
+      <c r="W31" t="b">
+        <v>0</v>
+      </c>
+      <c r="X31" t="s">
+        <v>25</v>
+      </c>
       <c r="Y31" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>175</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32">
+        <v>68</v>
+      </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32">
+        <v>7.4</v>
+      </c>
+      <c r="P32" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>25</v>
+      </c>
+      <c r="R32" t="s">
+        <v>25</v>
+      </c>
+      <c r="S32" t="s">
+        <v>25</v>
+      </c>
+      <c r="T32" t="s">
+        <v>25</v>
+      </c>
+      <c r="U32" t="b">
+        <v>0</v>
+      </c>
+      <c r="V32" t="s">
+        <v>25</v>
+      </c>
+      <c r="W32" t="b">
+        <v>0</v>
+      </c>
+      <c r="X32" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" t="s">
         <v>21</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>55</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>22</v>
       </c>
-      <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32">
+      <c r="F33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>25</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="K33">
+        <v>88</v>
+      </c>
+      <c r="L33" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" t="s">
+        <v>25</v>
+      </c>
+      <c r="P33" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>25</v>
+      </c>
+      <c r="R33" t="s">
+        <v>25</v>
+      </c>
+      <c r="S33" t="s">
+        <v>25</v>
+      </c>
+      <c r="T33" t="s">
+        <v>25</v>
+      </c>
+      <c r="U33" t="b">
+        <v>0</v>
+      </c>
+      <c r="V33" t="s">
+        <v>25</v>
+      </c>
+      <c r="W33" t="b">
+        <v>0</v>
+      </c>
+      <c r="X33" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34">
         <v>3</v>
       </c>
-      <c r="H32">
-        <v>1080</v>
-      </c>
-      <c r="I32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J32">
-        <v>43</v>
-      </c>
-      <c r="K32">
-        <v>92</v>
-      </c>
-      <c r="L32">
-        <v>94</v>
-      </c>
-      <c r="M32" t="b">
-        <v>1</v>
-      </c>
-      <c r="N32" t="s">
-        <v>25</v>
-      </c>
-      <c r="O32">
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="P32" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>25</v>
-      </c>
-      <c r="R32" t="s">
-        <v>25</v>
-      </c>
-      <c r="S32" t="s">
-        <v>25</v>
-      </c>
-      <c r="T32">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="U32" t="b">
-        <v>0</v>
-      </c>
-      <c r="V32" t="s">
-        <v>25</v>
-      </c>
-      <c r="W32" t="b">
-        <v>0</v>
-      </c>
-      <c r="X32" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>182</v>
-      </c>
-      <c r="B33" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>184</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="H34">
+        <v>292</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>25</v>
+      </c>
+      <c r="K34" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34">
+        <v>6.19</v>
+      </c>
+      <c r="P34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>25</v>
+      </c>
+      <c r="R34" t="s">
+        <v>25</v>
+      </c>
+      <c r="S34" t="s">
+        <v>25</v>
+      </c>
+      <c r="T34" t="s">
+        <v>25</v>
+      </c>
+      <c r="U34" t="b">
+        <v>0</v>
+      </c>
+      <c r="V34" t="s">
+        <v>25</v>
+      </c>
+      <c r="W34" t="b">
+        <v>1</v>
+      </c>
+      <c r="X34" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>185</v>
       </c>
-      <c r="C34" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34">
-        <v>243</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>10</v>
-      </c>
-      <c r="K34">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="L34">
-        <v>68.7</v>
-      </c>
-      <c r="O34">
-        <v>17.8</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>184</v>
-      </c>
       <c r="B35" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
         <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>11</v>
-      </c>
-      <c r="L35">
-        <v>95.5</v>
+        <v>27</v>
+      </c>
+      <c r="K35" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35">
+        <v>8.1</v>
+      </c>
+      <c r="P35" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>25</v>
+      </c>
+      <c r="R35" t="s">
+        <v>25</v>
+      </c>
+      <c r="S35" t="s">
+        <v>25</v>
+      </c>
+      <c r="T35" t="s">
+        <v>25</v>
+      </c>
+      <c r="U35" t="b">
+        <v>0</v>
+      </c>
+      <c r="V35" t="s">
+        <v>25</v>
+      </c>
+      <c r="W35" t="b">
+        <v>1</v>
+      </c>
+      <c r="X35" t="s">
+        <v>187</v>
       </c>
       <c r="Y35" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="Z35" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
         <v>25</v>
       </c>
       <c r="E36" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="K36" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36">
+        <v>7.27</v>
+      </c>
+      <c r="P36" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>25</v>
+      </c>
+      <c r="R36" t="s">
+        <v>25</v>
+      </c>
+      <c r="S36" t="s">
+        <v>25</v>
+      </c>
+      <c r="T36" t="s">
+        <v>25</v>
+      </c>
+      <c r="U36" t="b">
+        <v>0</v>
+      </c>
+      <c r="V36" t="s">
+        <v>25</v>
+      </c>
+      <c r="W36" t="b">
+        <v>1</v>
+      </c>
+      <c r="X36" t="s">
+        <v>189</v>
       </c>
       <c r="Y36" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B37" t="s">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
         <v>21</v>
@@ -3548,45 +4552,78 @@
         <v>2</v>
       </c>
       <c r="H37">
-        <v>243</v>
+        <v>3791</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>81.900000000000006</v>
+        <v>73.959999999999994</v>
       </c>
       <c r="L37">
-        <v>97.9</v>
+        <v>23.27</v>
+      </c>
+      <c r="M37" t="b">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>3.7360000000000002</v>
       </c>
       <c r="O37">
-        <v>4</v>
+        <v>4.5</v>
+      </c>
+      <c r="P37" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>25</v>
+      </c>
+      <c r="R37" t="s">
+        <v>25</v>
+      </c>
+      <c r="S37" t="s">
+        <v>25</v>
+      </c>
+      <c r="T37">
+        <v>3.2</v>
+      </c>
+      <c r="U37" t="b">
+        <v>0</v>
+      </c>
+      <c r="V37" t="s">
+        <v>25</v>
+      </c>
+      <c r="W37" t="b">
+        <v>0</v>
+      </c>
+      <c r="X37" t="s">
+        <v>25</v>
       </c>
       <c r="Y37" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="Z37" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="F38" t="s">
         <v>23</v>
@@ -3595,30 +4632,69 @@
         <v>2</v>
       </c>
       <c r="H38">
-        <v>243</v>
+        <v>851</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="K38">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="L38" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38">
+        <v>7.3</v>
+      </c>
+      <c r="P38" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>25</v>
+      </c>
+      <c r="R38" t="s">
+        <v>25</v>
+      </c>
+      <c r="S38" t="s">
+        <v>25</v>
+      </c>
+      <c r="T38" t="s">
+        <v>25</v>
+      </c>
+      <c r="U38" t="b">
+        <v>0</v>
+      </c>
+      <c r="V38" t="s">
+        <v>25</v>
+      </c>
+      <c r="W38" t="b">
+        <v>0</v>
+      </c>
+      <c r="X38" t="s">
+        <v>25</v>
       </c>
       <c r="Y38" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
         <v>133</v>
@@ -3633,25 +4709,28 @@
         <v>2</v>
       </c>
       <c r="H39">
-        <v>151</v>
+        <v>851</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K39">
-        <v>56.3</v>
-      </c>
-      <c r="L39">
-        <v>88.7</v>
-      </c>
-      <c r="M39" t="b">
-        <v>1</v>
+        <v>70.900000000000006</v>
+      </c>
+      <c r="L39" t="s">
+        <v>25</v>
+      </c>
+      <c r="M39" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" t="s">
+        <v>25</v>
       </c>
       <c r="O39">
-        <v>12.1</v>
+        <v>7.6</v>
       </c>
       <c r="P39" t="s">
         <v>25</v>
@@ -3669,10 +4748,10 @@
         <v>25</v>
       </c>
       <c r="U39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="W39" t="b">
         <v>0</v>
@@ -3684,21 +4763,21 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="C40" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="F40" t="s">
         <v>23</v>
@@ -3707,25 +4786,28 @@
         <v>2</v>
       </c>
       <c r="H40">
-        <v>151</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>16</v>
+        <v>70</v>
+      </c>
+      <c r="I40" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40" t="s">
+        <v>25</v>
       </c>
       <c r="K40">
-        <v>45.7</v>
+        <v>18</v>
       </c>
       <c r="L40">
-        <v>75.5</v>
+        <v>46</v>
       </c>
       <c r="M40" t="b">
         <v>1</v>
       </c>
-      <c r="O40">
-        <v>7.4</v>
+      <c r="N40" t="s">
+        <v>25</v>
+      </c>
+      <c r="O40" t="s">
+        <v>25</v>
       </c>
       <c r="P40" t="s">
         <v>25</v>
@@ -3743,10 +4825,10 @@
         <v>25</v>
       </c>
       <c r="U40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="W40" t="b">
         <v>0</v>
@@ -3757,10 +4839,4414 @@
       <c r="Y40" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>175</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+      <c r="K41" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" t="s">
+        <v>25</v>
+      </c>
+      <c r="M41" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41">
+        <v>4.75</v>
+      </c>
+      <c r="O41">
+        <v>6.72</v>
+      </c>
+      <c r="P41" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>25</v>
+      </c>
+      <c r="R41" t="s">
+        <v>25</v>
+      </c>
+      <c r="S41" t="s">
+        <v>25</v>
+      </c>
+      <c r="T41" t="s">
+        <v>25</v>
+      </c>
+      <c r="U41" t="b">
+        <v>0</v>
+      </c>
+      <c r="V41" t="s">
+        <v>25</v>
+      </c>
+      <c r="W41" t="b">
+        <v>0</v>
+      </c>
+      <c r="X41" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>265</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>6</v>
+      </c>
+      <c r="K42" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42">
+        <v>3.41</v>
+      </c>
+      <c r="O42">
+        <v>4.83</v>
+      </c>
+      <c r="P42" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>25</v>
+      </c>
+      <c r="R42" t="s">
+        <v>25</v>
+      </c>
+      <c r="S42" t="s">
+        <v>25</v>
+      </c>
+      <c r="T42" t="s">
+        <v>25</v>
+      </c>
+      <c r="U42" t="b">
+        <v>0</v>
+      </c>
+      <c r="V42" t="s">
+        <v>25</v>
+      </c>
+      <c r="W42" t="b">
+        <v>0</v>
+      </c>
+      <c r="X42" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>199</v>
+      </c>
+      <c r="B43" t="s">
+        <v>200</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>50</v>
+      </c>
+      <c r="I43" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43">
+        <v>65</v>
+      </c>
+      <c r="L43">
+        <v>91</v>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
+        <v>25</v>
+      </c>
+      <c r="O43">
+        <v>14.4</v>
+      </c>
+      <c r="P43">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>25</v>
+      </c>
+      <c r="R43" t="s">
+        <v>25</v>
+      </c>
+      <c r="S43" t="s">
+        <v>25</v>
+      </c>
+      <c r="T43" t="s">
+        <v>25</v>
+      </c>
+      <c r="U43" t="b">
+        <v>0</v>
+      </c>
+      <c r="V43" t="s">
+        <v>25</v>
+      </c>
+      <c r="W43" t="b">
+        <v>0</v>
+      </c>
+      <c r="X43" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>199</v>
+      </c>
+      <c r="B44" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>50</v>
+      </c>
+      <c r="I44" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44">
+        <v>48</v>
+      </c>
+      <c r="L44">
+        <v>81</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>25</v>
+      </c>
+      <c r="O44">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="P44">
+        <v>0.65</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>25</v>
+      </c>
+      <c r="R44" t="s">
+        <v>25</v>
+      </c>
+      <c r="S44" t="s">
+        <v>25</v>
+      </c>
+      <c r="T44" t="s">
+        <v>25</v>
+      </c>
+      <c r="U44" t="b">
+        <v>0</v>
+      </c>
+      <c r="V44" t="s">
+        <v>25</v>
+      </c>
+      <c r="W44" t="b">
+        <v>0</v>
+      </c>
+      <c r="X44" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>199</v>
+      </c>
+      <c r="B45" t="s">
+        <v>200</v>
+      </c>
       <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>50</v>
+      </c>
+      <c r="I45" t="s">
+        <v>25</v>
+      </c>
+      <c r="J45" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45">
+        <v>35</v>
+      </c>
+      <c r="L45">
+        <v>82</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
+        <v>25</v>
+      </c>
+      <c r="O45">
+        <v>28.8</v>
+      </c>
+      <c r="P45">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>25</v>
+      </c>
+      <c r="R45" t="s">
+        <v>25</v>
+      </c>
+      <c r="S45" t="s">
+        <v>25</v>
+      </c>
+      <c r="T45" t="s">
+        <v>25</v>
+      </c>
+      <c r="U45" t="b">
+        <v>0</v>
+      </c>
+      <c r="V45" t="s">
+        <v>25</v>
+      </c>
+      <c r="W45" t="b">
+        <v>0</v>
+      </c>
+      <c r="X45" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>50</v>
+      </c>
+      <c r="I46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46">
+        <v>38</v>
+      </c>
+      <c r="L46">
+        <v>74</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>25</v>
+      </c>
+      <c r="O46">
+        <v>26.9</v>
+      </c>
+      <c r="P46">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>25</v>
+      </c>
+      <c r="R46" t="s">
+        <v>25</v>
+      </c>
+      <c r="S46" t="s">
+        <v>25</v>
+      </c>
+      <c r="T46" t="s">
+        <v>25</v>
+      </c>
+      <c r="U46" t="b">
+        <v>0</v>
+      </c>
+      <c r="V46" t="s">
+        <v>25</v>
+      </c>
+      <c r="W46" t="b">
+        <v>0</v>
+      </c>
+      <c r="X46" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>309</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>24</v>
+      </c>
+      <c r="K47">
+        <v>43.5</v>
+      </c>
+      <c r="L47">
+        <v>77</v>
+      </c>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
+        <v>25</v>
+      </c>
+      <c r="O47">
+        <v>9.9</v>
+      </c>
+      <c r="P47" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>25</v>
+      </c>
+      <c r="R47" t="s">
+        <v>25</v>
+      </c>
+      <c r="S47" t="s">
+        <v>25</v>
+      </c>
+      <c r="T47" t="s">
+        <v>25</v>
+      </c>
+      <c r="U47" t="b">
+        <v>0</v>
+      </c>
+      <c r="V47" t="s">
+        <v>25</v>
+      </c>
+      <c r="W47" t="b">
+        <v>0</v>
+      </c>
+      <c r="X47" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>309</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>27</v>
+      </c>
+      <c r="K48">
+        <v>57.9</v>
+      </c>
+      <c r="L48">
+        <v>87.4</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48">
+        <v>6.6</v>
+      </c>
+      <c r="P48" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>25</v>
+      </c>
+      <c r="R48" t="s">
+        <v>25</v>
+      </c>
+      <c r="S48" t="s">
+        <v>25</v>
+      </c>
+      <c r="T48" t="s">
+        <v>25</v>
+      </c>
+      <c r="U48" t="b">
+        <v>0</v>
+      </c>
+      <c r="V48" t="s">
+        <v>25</v>
+      </c>
+      <c r="W48" t="b">
+        <v>0</v>
+      </c>
+      <c r="X48" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>204</v>
+      </c>
+      <c r="B49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>183</v>
+      </c>
+      <c r="F49" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>163</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>11</v>
+      </c>
+      <c r="K49">
+        <v>70</v>
+      </c>
+      <c r="L49">
+        <v>96</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
+        <v>25</v>
+      </c>
+      <c r="O49">
+        <v>5.95</v>
+      </c>
+      <c r="P49" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>25</v>
+      </c>
+      <c r="R49" t="s">
+        <v>25</v>
+      </c>
+      <c r="S49" t="s">
+        <v>25</v>
+      </c>
+      <c r="T49" t="s">
+        <v>25</v>
+      </c>
+      <c r="U49" t="b">
+        <v>1</v>
+      </c>
+      <c r="V49" t="s">
+        <v>32</v>
+      </c>
+      <c r="W49" t="b">
+        <v>0</v>
+      </c>
+      <c r="X49" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>204</v>
+      </c>
+      <c r="B50" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>167</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>12</v>
+      </c>
+      <c r="K50">
+        <v>58</v>
+      </c>
+      <c r="L50">
+        <v>91</v>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
+        <v>25</v>
+      </c>
+      <c r="O50">
+        <v>11.03</v>
+      </c>
+      <c r="P50" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>25</v>
+      </c>
+      <c r="R50" t="s">
+        <v>25</v>
+      </c>
+      <c r="S50" t="s">
+        <v>25</v>
+      </c>
+      <c r="T50" t="s">
+        <v>25</v>
+      </c>
+      <c r="U50" t="b">
+        <v>1</v>
+      </c>
+      <c r="V50" t="s">
+        <v>32</v>
+      </c>
+      <c r="W50" t="b">
+        <v>0</v>
+      </c>
+      <c r="X50" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>204</v>
+      </c>
+      <c r="B51" t="s">
+        <v>205</v>
+      </c>
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>162</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>11</v>
+      </c>
+      <c r="K51">
+        <v>55</v>
+      </c>
+      <c r="L51">
+        <v>88</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
+        <v>25</v>
+      </c>
+      <c r="O51">
+        <v>12.32</v>
+      </c>
+      <c r="P51" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>25</v>
+      </c>
+      <c r="R51" t="s">
+        <v>25</v>
+      </c>
+      <c r="S51" t="s">
+        <v>25</v>
+      </c>
+      <c r="T51" t="s">
+        <v>25</v>
+      </c>
+      <c r="U51" t="b">
+        <v>1</v>
+      </c>
+      <c r="V51" t="s">
+        <v>32</v>
+      </c>
+      <c r="W51" t="b">
+        <v>0</v>
+      </c>
+      <c r="X51" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>206</v>
+      </c>
+      <c r="B52" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
         <v>172</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="K52" t="s">
+        <v>25</v>
+      </c>
+      <c r="L52" t="s">
+        <v>25</v>
+      </c>
+      <c r="M52" t="s">
+        <v>25</v>
+      </c>
+      <c r="N52" t="s">
+        <v>25</v>
+      </c>
+      <c r="O52">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="P52" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>25</v>
+      </c>
+      <c r="R52" t="s">
+        <v>25</v>
+      </c>
+      <c r="S52" t="s">
+        <v>25</v>
+      </c>
+      <c r="T52" t="s">
+        <v>25</v>
+      </c>
+      <c r="U52" t="b">
+        <v>1</v>
+      </c>
+      <c r="V52" t="s">
+        <v>32</v>
+      </c>
+      <c r="W52" t="b">
+        <v>0</v>
+      </c>
+      <c r="X52" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" t="s">
+        <v>171</v>
+      </c>
+      <c r="F53" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>172</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M53" t="s">
+        <v>25</v>
+      </c>
+      <c r="N53" t="s">
+        <v>25</v>
+      </c>
+      <c r="O53">
+        <v>20.71</v>
+      </c>
+      <c r="P53" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>25</v>
+      </c>
+      <c r="R53" t="s">
+        <v>25</v>
+      </c>
+      <c r="S53" t="s">
+        <v>25</v>
+      </c>
+      <c r="T53" t="s">
+        <v>25</v>
+      </c>
+      <c r="U53" t="b">
+        <v>1</v>
+      </c>
+      <c r="V53" t="s">
+        <v>32</v>
+      </c>
+      <c r="W53" t="b">
+        <v>0</v>
+      </c>
+      <c r="X53" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>206</v>
+      </c>
+      <c r="B54" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" t="s">
+        <v>210</v>
+      </c>
+      <c r="F54" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>172</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" t="s">
+        <v>25</v>
+      </c>
+      <c r="M54" t="s">
+        <v>25</v>
+      </c>
+      <c r="N54" t="s">
+        <v>25</v>
+      </c>
+      <c r="O54">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="P54" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>25</v>
+      </c>
+      <c r="R54" t="s">
+        <v>25</v>
+      </c>
+      <c r="S54" t="s">
+        <v>25</v>
+      </c>
+      <c r="T54" t="s">
+        <v>25</v>
+      </c>
+      <c r="U54" t="b">
+        <v>1</v>
+      </c>
+      <c r="V54" t="s">
+        <v>32</v>
+      </c>
+      <c r="W54" t="b">
+        <v>0</v>
+      </c>
+      <c r="X54" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>206</v>
+      </c>
+      <c r="B55" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>172</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>5</v>
+      </c>
+      <c r="K55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N55" t="s">
+        <v>25</v>
+      </c>
+      <c r="O55">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="P55" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>25</v>
+      </c>
+      <c r="R55" t="s">
+        <v>25</v>
+      </c>
+      <c r="S55" t="s">
+        <v>25</v>
+      </c>
+      <c r="T55" t="s">
+        <v>25</v>
+      </c>
+      <c r="U55" t="b">
+        <v>1</v>
+      </c>
+      <c r="V55" t="s">
+        <v>32</v>
+      </c>
+      <c r="W55" t="b">
+        <v>0</v>
+      </c>
+      <c r="X55" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>206</v>
+      </c>
+      <c r="B56" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>171</v>
+      </c>
+      <c r="F56" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>172</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="K56" t="s">
+        <v>25</v>
+      </c>
+      <c r="L56" t="s">
+        <v>25</v>
+      </c>
+      <c r="M56" t="s">
+        <v>25</v>
+      </c>
+      <c r="N56" t="s">
+        <v>25</v>
+      </c>
+      <c r="O56">
+        <v>13.66</v>
+      </c>
+      <c r="P56" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>25</v>
+      </c>
+      <c r="R56" t="s">
+        <v>25</v>
+      </c>
+      <c r="S56" t="s">
+        <v>25</v>
+      </c>
+      <c r="T56" t="s">
+        <v>25</v>
+      </c>
+      <c r="U56" t="b">
+        <v>1</v>
+      </c>
+      <c r="V56" t="s">
+        <v>32</v>
+      </c>
+      <c r="W56" t="b">
+        <v>0</v>
+      </c>
+      <c r="X56" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>206</v>
+      </c>
+      <c r="B57" t="s">
+        <v>207</v>
+      </c>
+      <c r="C57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" t="s">
+        <v>210</v>
+      </c>
+      <c r="F57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>172</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>5</v>
+      </c>
+      <c r="K57" t="s">
+        <v>25</v>
+      </c>
+      <c r="L57" t="s">
+        <v>25</v>
+      </c>
+      <c r="M57" t="s">
+        <v>25</v>
+      </c>
+      <c r="N57" t="s">
+        <v>25</v>
+      </c>
+      <c r="O57">
+        <v>8.66</v>
+      </c>
+      <c r="P57" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>25</v>
+      </c>
+      <c r="R57" t="s">
+        <v>25</v>
+      </c>
+      <c r="S57" t="s">
+        <v>25</v>
+      </c>
+      <c r="T57" t="s">
+        <v>25</v>
+      </c>
+      <c r="U57" t="b">
+        <v>1</v>
+      </c>
+      <c r="V57" t="s">
+        <v>32</v>
+      </c>
+      <c r="W57" t="b">
+        <v>0</v>
+      </c>
+      <c r="X57" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>206</v>
+      </c>
+      <c r="B58" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>172</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>5</v>
+      </c>
+      <c r="K58" t="s">
+        <v>25</v>
+      </c>
+      <c r="L58" t="s">
+        <v>25</v>
+      </c>
+      <c r="M58" t="s">
+        <v>25</v>
+      </c>
+      <c r="N58" t="s">
+        <v>25</v>
+      </c>
+      <c r="O58">
+        <v>6.43</v>
+      </c>
+      <c r="P58" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>25</v>
+      </c>
+      <c r="R58" t="s">
+        <v>25</v>
+      </c>
+      <c r="S58" t="s">
+        <v>25</v>
+      </c>
+      <c r="T58" t="s">
+        <v>25</v>
+      </c>
+      <c r="U58" t="b">
+        <v>1</v>
+      </c>
+      <c r="V58" t="s">
+        <v>32</v>
+      </c>
+      <c r="W58" t="b">
+        <v>0</v>
+      </c>
+      <c r="X58" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>206</v>
+      </c>
+      <c r="B59" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <v>172</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+      <c r="K59" t="s">
+        <v>25</v>
+      </c>
+      <c r="L59" t="s">
+        <v>25</v>
+      </c>
+      <c r="M59" t="s">
+        <v>25</v>
+      </c>
+      <c r="N59" t="s">
+        <v>25</v>
+      </c>
+      <c r="O59">
+        <v>15.72</v>
+      </c>
+      <c r="P59" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>25</v>
+      </c>
+      <c r="R59" t="s">
+        <v>25</v>
+      </c>
+      <c r="S59" t="s">
+        <v>25</v>
+      </c>
+      <c r="T59" t="s">
+        <v>25</v>
+      </c>
+      <c r="U59" t="b">
+        <v>1</v>
+      </c>
+      <c r="V59" t="s">
+        <v>32</v>
+      </c>
+      <c r="W59" t="b">
+        <v>0</v>
+      </c>
+      <c r="X59" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>206</v>
+      </c>
+      <c r="B60" t="s">
+        <v>207</v>
+      </c>
+      <c r="C60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" t="s">
+        <v>210</v>
+      </c>
+      <c r="F60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>172</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>5</v>
+      </c>
+      <c r="K60" t="s">
+        <v>25</v>
+      </c>
+      <c r="L60" t="s">
+        <v>25</v>
+      </c>
+      <c r="M60" t="s">
+        <v>25</v>
+      </c>
+      <c r="N60" t="s">
+        <v>25</v>
+      </c>
+      <c r="O60">
+        <v>11.76</v>
+      </c>
+      <c r="P60" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>25</v>
+      </c>
+      <c r="R60" t="s">
+        <v>25</v>
+      </c>
+      <c r="S60" t="s">
+        <v>25</v>
+      </c>
+      <c r="T60" t="s">
+        <v>25</v>
+      </c>
+      <c r="U60" t="b">
+        <v>1</v>
+      </c>
+      <c r="V60" t="s">
+        <v>32</v>
+      </c>
+      <c r="W60" t="b">
+        <v>0</v>
+      </c>
+      <c r="X60" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>206</v>
+      </c>
+      <c r="B61" t="s">
+        <v>207</v>
+      </c>
+      <c r="C61" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>172</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>5</v>
+      </c>
+      <c r="K61" t="s">
+        <v>25</v>
+      </c>
+      <c r="L61" t="s">
+        <v>25</v>
+      </c>
+      <c r="M61" t="s">
+        <v>25</v>
+      </c>
+      <c r="N61" t="s">
+        <v>25</v>
+      </c>
+      <c r="O61">
+        <v>10.26</v>
+      </c>
+      <c r="P61" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>25</v>
+      </c>
+      <c r="R61" t="s">
+        <v>25</v>
+      </c>
+      <c r="S61" t="s">
+        <v>25</v>
+      </c>
+      <c r="T61" t="s">
+        <v>25</v>
+      </c>
+      <c r="U61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V61" t="s">
+        <v>32</v>
+      </c>
+      <c r="W61" t="b">
+        <v>0</v>
+      </c>
+      <c r="X61" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>206</v>
+      </c>
+      <c r="B62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" t="s">
+        <v>171</v>
+      </c>
+      <c r="F62" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>172</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
+      <c r="K62" t="s">
+        <v>25</v>
+      </c>
+      <c r="L62" t="s">
+        <v>25</v>
+      </c>
+      <c r="M62" t="s">
+        <v>25</v>
+      </c>
+      <c r="N62" t="s">
+        <v>25</v>
+      </c>
+      <c r="O62">
+        <v>23.3</v>
+      </c>
+      <c r="P62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>25</v>
+      </c>
+      <c r="R62" t="s">
+        <v>25</v>
+      </c>
+      <c r="S62" t="s">
+        <v>25</v>
+      </c>
+      <c r="T62" t="s">
+        <v>25</v>
+      </c>
+      <c r="U62" t="b">
+        <v>1</v>
+      </c>
+      <c r="V62" t="s">
+        <v>32</v>
+      </c>
+      <c r="W62" t="b">
+        <v>0</v>
+      </c>
+      <c r="X62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>206</v>
+      </c>
+      <c r="B63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" t="s">
+        <v>210</v>
+      </c>
+      <c r="F63" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>172</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>5</v>
+      </c>
+      <c r="K63" t="s">
+        <v>25</v>
+      </c>
+      <c r="L63" t="s">
+        <v>25</v>
+      </c>
+      <c r="M63" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63" t="s">
+        <v>25</v>
+      </c>
+      <c r="O63">
+        <v>14.69</v>
+      </c>
+      <c r="P63" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>25</v>
+      </c>
+      <c r="R63" t="s">
+        <v>25</v>
+      </c>
+      <c r="S63" t="s">
+        <v>25</v>
+      </c>
+      <c r="T63" t="s">
+        <v>25</v>
+      </c>
+      <c r="U63" t="b">
+        <v>1</v>
+      </c>
+      <c r="V63" t="s">
+        <v>32</v>
+      </c>
+      <c r="W63" t="b">
+        <v>0</v>
+      </c>
+      <c r="X63" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>206</v>
+      </c>
+      <c r="B64" t="s">
+        <v>207</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>172</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>5</v>
+      </c>
+      <c r="K64" t="s">
+        <v>25</v>
+      </c>
+      <c r="L64" t="s">
+        <v>25</v>
+      </c>
+      <c r="M64" t="s">
+        <v>25</v>
+      </c>
+      <c r="N64" t="s">
+        <v>25</v>
+      </c>
+      <c r="O64">
+        <v>12.17</v>
+      </c>
+      <c r="P64" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>25</v>
+      </c>
+      <c r="R64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S64" t="s">
+        <v>25</v>
+      </c>
+      <c r="T64" t="s">
+        <v>25</v>
+      </c>
+      <c r="U64" t="b">
+        <v>1</v>
+      </c>
+      <c r="V64" t="s">
+        <v>32</v>
+      </c>
+      <c r="W64" t="b">
+        <v>0</v>
+      </c>
+      <c r="X64" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>206</v>
+      </c>
+      <c r="B65" t="s">
+        <v>207</v>
+      </c>
+      <c r="C65" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" t="s">
+        <v>171</v>
+      </c>
+      <c r="F65" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>172</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>5</v>
+      </c>
+      <c r="K65" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" t="s">
+        <v>25</v>
+      </c>
+      <c r="M65" t="s">
+        <v>25</v>
+      </c>
+      <c r="N65" t="s">
+        <v>25</v>
+      </c>
+      <c r="O65">
+        <v>20.25</v>
+      </c>
+      <c r="P65" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>25</v>
+      </c>
+      <c r="R65" t="s">
+        <v>25</v>
+      </c>
+      <c r="S65" t="s">
+        <v>25</v>
+      </c>
+      <c r="T65" t="s">
+        <v>25</v>
+      </c>
+      <c r="U65" t="b">
+        <v>1</v>
+      </c>
+      <c r="V65" t="s">
+        <v>32</v>
+      </c>
+      <c r="W65" t="b">
+        <v>0</v>
+      </c>
+      <c r="X65" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>206</v>
+      </c>
+      <c r="B66" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" t="s">
+        <v>210</v>
+      </c>
+      <c r="F66" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66">
+        <v>172</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>5</v>
+      </c>
+      <c r="K66" t="s">
+        <v>25</v>
+      </c>
+      <c r="L66" t="s">
+        <v>25</v>
+      </c>
+      <c r="M66" t="s">
+        <v>25</v>
+      </c>
+      <c r="N66" t="s">
+        <v>25</v>
+      </c>
+      <c r="O66">
+        <v>19.25</v>
+      </c>
+      <c r="P66" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>25</v>
+      </c>
+      <c r="R66" t="s">
+        <v>25</v>
+      </c>
+      <c r="S66" t="s">
+        <v>25</v>
+      </c>
+      <c r="T66" t="s">
+        <v>25</v>
+      </c>
+      <c r="U66" t="b">
+        <v>1</v>
+      </c>
+      <c r="V66" t="s">
+        <v>32</v>
+      </c>
+      <c r="W66" t="b">
+        <v>0</v>
+      </c>
+      <c r="X66" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>172</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>5</v>
+      </c>
+      <c r="K67" t="s">
+        <v>25</v>
+      </c>
+      <c r="L67" t="s">
+        <v>25</v>
+      </c>
+      <c r="M67" t="s">
+        <v>25</v>
+      </c>
+      <c r="N67" t="s">
+        <v>25</v>
+      </c>
+      <c r="O67">
+        <v>13.14</v>
+      </c>
+      <c r="P67" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>25</v>
+      </c>
+      <c r="R67" t="s">
+        <v>25</v>
+      </c>
+      <c r="S67" t="s">
+        <v>25</v>
+      </c>
+      <c r="T67" t="s">
+        <v>25</v>
+      </c>
+      <c r="U67" t="b">
+        <v>1</v>
+      </c>
+      <c r="V67" t="s">
+        <v>32</v>
+      </c>
+      <c r="W67" t="b">
+        <v>0</v>
+      </c>
+      <c r="X67" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>206</v>
+      </c>
+      <c r="B68" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" t="s">
+        <v>171</v>
+      </c>
+      <c r="F68" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>172</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>5</v>
+      </c>
+      <c r="K68" t="s">
+        <v>25</v>
+      </c>
+      <c r="L68" t="s">
+        <v>25</v>
+      </c>
+      <c r="M68" t="s">
+        <v>25</v>
+      </c>
+      <c r="N68" t="s">
+        <v>25</v>
+      </c>
+      <c r="O68">
+        <v>23.27</v>
+      </c>
+      <c r="P68" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>25</v>
+      </c>
+      <c r="R68" t="s">
+        <v>25</v>
+      </c>
+      <c r="S68" t="s">
+        <v>25</v>
+      </c>
+      <c r="T68" t="s">
+        <v>25</v>
+      </c>
+      <c r="U68" t="b">
+        <v>1</v>
+      </c>
+      <c r="V68" t="s">
+        <v>32</v>
+      </c>
+      <c r="W68" t="b">
+        <v>0</v>
+      </c>
+      <c r="X68" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>206</v>
+      </c>
+      <c r="B69" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" t="s">
+        <v>210</v>
+      </c>
+      <c r="F69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <v>172</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>5</v>
+      </c>
+      <c r="K69" t="s">
+        <v>25</v>
+      </c>
+      <c r="L69" t="s">
+        <v>25</v>
+      </c>
+      <c r="M69" t="s">
+        <v>25</v>
+      </c>
+      <c r="N69" t="s">
+        <v>25</v>
+      </c>
+      <c r="O69">
+        <v>17.89</v>
+      </c>
+      <c r="P69" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>25</v>
+      </c>
+      <c r="R69" t="s">
+        <v>25</v>
+      </c>
+      <c r="S69" t="s">
+        <v>25</v>
+      </c>
+      <c r="T69" t="s">
+        <v>25</v>
+      </c>
+      <c r="U69" t="b">
+        <v>1</v>
+      </c>
+      <c r="V69" t="s">
+        <v>32</v>
+      </c>
+      <c r="W69" t="b">
+        <v>0</v>
+      </c>
+      <c r="X69" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>215</v>
+      </c>
+      <c r="B70" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" t="s">
+        <v>127</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" t="s">
+        <v>42</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>27</v>
+      </c>
+      <c r="I70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N70">
+        <v>10.79</v>
+      </c>
+      <c r="O70">
+        <v>15.26</v>
+      </c>
+      <c r="P70" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>25</v>
+      </c>
+      <c r="R70" t="s">
+        <v>25</v>
+      </c>
+      <c r="S70" t="s">
+        <v>25</v>
+      </c>
+      <c r="T70" t="s">
+        <v>25</v>
+      </c>
+      <c r="U70" t="b">
+        <v>0</v>
+      </c>
+      <c r="V70" t="s">
+        <v>25</v>
+      </c>
+      <c r="W70" t="b">
+        <v>0</v>
+      </c>
+      <c r="X70" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>215</v>
+      </c>
+      <c r="B71" t="s">
+        <v>203</v>
+      </c>
+      <c r="C71" t="s">
+        <v>217</v>
+      </c>
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71">
+        <v>29</v>
+      </c>
+      <c r="I71" t="s">
+        <v>25</v>
+      </c>
+      <c r="J71" t="s">
+        <v>25</v>
+      </c>
+      <c r="K71" t="s">
+        <v>25</v>
+      </c>
+      <c r="L71" t="s">
+        <v>25</v>
+      </c>
+      <c r="M71" t="s">
+        <v>25</v>
+      </c>
+      <c r="N71">
+        <v>7.56</v>
+      </c>
+      <c r="O71">
+        <v>10.7</v>
+      </c>
+      <c r="P71" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>25</v>
+      </c>
+      <c r="R71" t="s">
+        <v>25</v>
+      </c>
+      <c r="S71" t="s">
+        <v>25</v>
+      </c>
+      <c r="T71" t="s">
+        <v>25</v>
+      </c>
+      <c r="U71" t="b">
+        <v>0</v>
+      </c>
+      <c r="V71" t="s">
+        <v>25</v>
+      </c>
+      <c r="W71" t="b">
+        <v>0</v>
+      </c>
+      <c r="X71" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>215</v>
+      </c>
+      <c r="B72" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" t="s">
+        <v>218</v>
+      </c>
+      <c r="E72" t="s">
+        <v>171</v>
+      </c>
+      <c r="F72" t="s">
+        <v>42</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>28</v>
+      </c>
+      <c r="I72" t="s">
+        <v>25</v>
+      </c>
+      <c r="J72" t="s">
+        <v>25</v>
+      </c>
+      <c r="K72" t="s">
+        <v>25</v>
+      </c>
+      <c r="L72" t="s">
+        <v>25</v>
+      </c>
+      <c r="M72" t="s">
+        <v>25</v>
+      </c>
+      <c r="N72">
+        <v>12.54</v>
+      </c>
+      <c r="O72">
+        <v>17.73</v>
+      </c>
+      <c r="P72" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>25</v>
+      </c>
+      <c r="R72" t="s">
+        <v>25</v>
+      </c>
+      <c r="S72" t="s">
+        <v>25</v>
+      </c>
+      <c r="T72" t="s">
+        <v>25</v>
+      </c>
+      <c r="U72" t="b">
+        <v>0</v>
+      </c>
+      <c r="V72" t="s">
+        <v>25</v>
+      </c>
+      <c r="W72" t="b">
+        <v>0</v>
+      </c>
+      <c r="X72" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>215</v>
+      </c>
+      <c r="B73" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" t="s">
+        <v>127</v>
+      </c>
+      <c r="D73" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" t="s">
+        <v>42</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <v>29</v>
+      </c>
+      <c r="I73" t="s">
+        <v>25</v>
+      </c>
+      <c r="J73" t="s">
+        <v>25</v>
+      </c>
+      <c r="K73" t="s">
+        <v>25</v>
+      </c>
+      <c r="L73" t="s">
+        <v>25</v>
+      </c>
+      <c r="M73" t="s">
+        <v>25</v>
+      </c>
+      <c r="N73">
+        <v>9.19</v>
+      </c>
+      <c r="O73">
+        <v>13</v>
+      </c>
+      <c r="P73" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>25</v>
+      </c>
+      <c r="R73" t="s">
+        <v>25</v>
+      </c>
+      <c r="S73" t="s">
+        <v>25</v>
+      </c>
+      <c r="T73" t="s">
+        <v>25</v>
+      </c>
+      <c r="U73" t="b">
+        <v>0</v>
+      </c>
+      <c r="V73" t="s">
+        <v>25</v>
+      </c>
+      <c r="W73" t="b">
+        <v>0</v>
+      </c>
+      <c r="X73" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>215</v>
+      </c>
+      <c r="B74" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s">
+        <v>42</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="H74">
+        <v>30</v>
+      </c>
+      <c r="I74" t="s">
+        <v>25</v>
+      </c>
+      <c r="J74" t="s">
+        <v>25</v>
+      </c>
+      <c r="K74" t="s">
+        <v>25</v>
+      </c>
+      <c r="L74" t="s">
+        <v>25</v>
+      </c>
+      <c r="M74" t="s">
+        <v>25</v>
+      </c>
+      <c r="N74">
+        <v>14.09</v>
+      </c>
+      <c r="O74">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="P74" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>25</v>
+      </c>
+      <c r="R74" t="s">
+        <v>25</v>
+      </c>
+      <c r="S74" t="s">
+        <v>25</v>
+      </c>
+      <c r="T74" t="s">
+        <v>25</v>
+      </c>
+      <c r="U74" t="b">
+        <v>0</v>
+      </c>
+      <c r="V74" t="s">
+        <v>25</v>
+      </c>
+      <c r="W74" t="b">
+        <v>0</v>
+      </c>
+      <c r="X74" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>215</v>
+      </c>
+      <c r="B75" t="s">
+        <v>203</v>
+      </c>
+      <c r="C75" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" t="s">
+        <v>218</v>
+      </c>
+      <c r="E75" t="s">
+        <v>171</v>
+      </c>
+      <c r="F75" t="s">
+        <v>42</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>30</v>
+      </c>
+      <c r="I75" t="s">
+        <v>25</v>
+      </c>
+      <c r="J75" t="s">
+        <v>25</v>
+      </c>
+      <c r="K75" t="s">
+        <v>25</v>
+      </c>
+      <c r="L75" t="s">
+        <v>25</v>
+      </c>
+      <c r="M75" t="s">
+        <v>25</v>
+      </c>
+      <c r="N75">
+        <v>12.81</v>
+      </c>
+      <c r="O75">
+        <v>18.11</v>
+      </c>
+      <c r="P75" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>25</v>
+      </c>
+      <c r="R75" t="s">
+        <v>25</v>
+      </c>
+      <c r="S75" t="s">
+        <v>25</v>
+      </c>
+      <c r="T75" t="s">
+        <v>25</v>
+      </c>
+      <c r="U75" t="b">
+        <v>0</v>
+      </c>
+      <c r="V75" t="s">
+        <v>25</v>
+      </c>
+      <c r="W75" t="b">
+        <v>0</v>
+      </c>
+      <c r="X75" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>215</v>
+      </c>
+      <c r="B76" t="s">
+        <v>203</v>
+      </c>
+      <c r="C76" t="s">
+        <v>127</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" t="s">
+        <v>42</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <v>30</v>
+      </c>
+      <c r="I76" t="s">
+        <v>25</v>
+      </c>
+      <c r="J76" t="s">
+        <v>25</v>
+      </c>
+      <c r="K76" t="s">
+        <v>25</v>
+      </c>
+      <c r="L76" t="s">
+        <v>25</v>
+      </c>
+      <c r="M76" t="s">
+        <v>25</v>
+      </c>
+      <c r="N76">
+        <v>7.37</v>
+      </c>
+      <c r="O76">
+        <v>10.43</v>
+      </c>
+      <c r="P76" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>25</v>
+      </c>
+      <c r="R76" t="s">
+        <v>25</v>
+      </c>
+      <c r="S76" t="s">
+        <v>25</v>
+      </c>
+      <c r="T76" t="s">
+        <v>25</v>
+      </c>
+      <c r="U76" t="b">
+        <v>0</v>
+      </c>
+      <c r="V76" t="s">
+        <v>25</v>
+      </c>
+      <c r="W76" t="b">
+        <v>0</v>
+      </c>
+      <c r="X76" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>215</v>
+      </c>
+      <c r="B77" t="s">
+        <v>203</v>
+      </c>
+      <c r="C77" t="s">
+        <v>217</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" t="s">
+        <v>42</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77">
+        <v>30</v>
+      </c>
+      <c r="I77" t="s">
+        <v>25</v>
+      </c>
+      <c r="J77" t="s">
+        <v>25</v>
+      </c>
+      <c r="K77" t="s">
+        <v>25</v>
+      </c>
+      <c r="L77" t="s">
+        <v>25</v>
+      </c>
+      <c r="M77" t="s">
+        <v>25</v>
+      </c>
+      <c r="N77">
+        <v>12.18</v>
+      </c>
+      <c r="O77">
+        <v>17.22</v>
+      </c>
+      <c r="P77" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>25</v>
+      </c>
+      <c r="R77" t="s">
+        <v>25</v>
+      </c>
+      <c r="S77" t="s">
+        <v>25</v>
+      </c>
+      <c r="T77" t="s">
+        <v>25</v>
+      </c>
+      <c r="U77" t="b">
+        <v>0</v>
+      </c>
+      <c r="V77" t="s">
+        <v>25</v>
+      </c>
+      <c r="W77" t="b">
+        <v>0</v>
+      </c>
+      <c r="X77" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>215</v>
+      </c>
+      <c r="B78" t="s">
+        <v>203</v>
+      </c>
+      <c r="C78" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" t="s">
+        <v>218</v>
+      </c>
+      <c r="E78" t="s">
+        <v>171</v>
+      </c>
+      <c r="F78" t="s">
+        <v>42</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>30</v>
+      </c>
+      <c r="I78" t="s">
+        <v>25</v>
+      </c>
+      <c r="J78" t="s">
+        <v>25</v>
+      </c>
+      <c r="K78" t="s">
+        <v>25</v>
+      </c>
+      <c r="L78" t="s">
+        <v>25</v>
+      </c>
+      <c r="M78" t="s">
+        <v>25</v>
+      </c>
+      <c r="N78">
+        <v>11.63</v>
+      </c>
+      <c r="O78">
+        <v>16.45</v>
+      </c>
+      <c r="P78" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>25</v>
+      </c>
+      <c r="R78" t="s">
+        <v>25</v>
+      </c>
+      <c r="S78" t="s">
+        <v>25</v>
+      </c>
+      <c r="T78" t="s">
+        <v>25</v>
+      </c>
+      <c r="U78" t="b">
+        <v>0</v>
+      </c>
+      <c r="V78" t="s">
+        <v>25</v>
+      </c>
+      <c r="W78" t="b">
+        <v>0</v>
+      </c>
+      <c r="X78" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>215</v>
+      </c>
+      <c r="B79" t="s">
+        <v>203</v>
+      </c>
+      <c r="C79" t="s">
+        <v>127</v>
+      </c>
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79">
+        <v>27</v>
+      </c>
+      <c r="I79" t="s">
+        <v>25</v>
+      </c>
+      <c r="J79" t="s">
+        <v>25</v>
+      </c>
+      <c r="K79" t="s">
+        <v>25</v>
+      </c>
+      <c r="L79" t="s">
+        <v>25</v>
+      </c>
+      <c r="M79" t="s">
+        <v>25</v>
+      </c>
+      <c r="N79">
+        <v>9.57</v>
+      </c>
+      <c r="O79">
+        <v>13.53</v>
+      </c>
+      <c r="P79" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>25</v>
+      </c>
+      <c r="R79" t="s">
+        <v>25</v>
+      </c>
+      <c r="S79" t="s">
+        <v>25</v>
+      </c>
+      <c r="T79" t="s">
+        <v>25</v>
+      </c>
+      <c r="U79" t="b">
+        <v>0</v>
+      </c>
+      <c r="V79" t="s">
+        <v>25</v>
+      </c>
+      <c r="W79" t="b">
+        <v>0</v>
+      </c>
+      <c r="X79" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>215</v>
+      </c>
+      <c r="B80" t="s">
+        <v>203</v>
+      </c>
+      <c r="C80" t="s">
+        <v>217</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80">
+        <v>29</v>
+      </c>
+      <c r="I80" t="s">
+        <v>25</v>
+      </c>
+      <c r="J80" t="s">
+        <v>25</v>
+      </c>
+      <c r="K80" t="s">
+        <v>25</v>
+      </c>
+      <c r="L80" t="s">
+        <v>25</v>
+      </c>
+      <c r="M80" t="s">
+        <v>25</v>
+      </c>
+      <c r="N80">
+        <v>10.52</v>
+      </c>
+      <c r="O80">
+        <v>14.87</v>
+      </c>
+      <c r="P80" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>25</v>
+      </c>
+      <c r="R80" t="s">
+        <v>25</v>
+      </c>
+      <c r="S80" t="s">
+        <v>25</v>
+      </c>
+      <c r="T80" t="s">
+        <v>25</v>
+      </c>
+      <c r="U80" t="b">
+        <v>0</v>
+      </c>
+      <c r="V80" t="s">
+        <v>25</v>
+      </c>
+      <c r="W80" t="b">
+        <v>0</v>
+      </c>
+      <c r="X80" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>215</v>
+      </c>
+      <c r="B81" t="s">
+        <v>203</v>
+      </c>
+      <c r="C81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" t="s">
+        <v>218</v>
+      </c>
+      <c r="E81" t="s">
+        <v>171</v>
+      </c>
+      <c r="F81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81">
+        <v>28</v>
+      </c>
+      <c r="I81" t="s">
+        <v>25</v>
+      </c>
+      <c r="J81" t="s">
+        <v>25</v>
+      </c>
+      <c r="K81" t="s">
+        <v>25</v>
+      </c>
+      <c r="L81" t="s">
+        <v>25</v>
+      </c>
+      <c r="M81" t="s">
+        <v>25</v>
+      </c>
+      <c r="N81">
+        <v>13.28</v>
+      </c>
+      <c r="O81">
+        <v>18.78</v>
+      </c>
+      <c r="P81" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>25</v>
+      </c>
+      <c r="R81" t="s">
+        <v>25</v>
+      </c>
+      <c r="S81" t="s">
+        <v>25</v>
+      </c>
+      <c r="T81" t="s">
+        <v>25</v>
+      </c>
+      <c r="U81" t="b">
+        <v>0</v>
+      </c>
+      <c r="V81" t="s">
+        <v>25</v>
+      </c>
+      <c r="W81" t="b">
+        <v>0</v>
+      </c>
+      <c r="X81" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>215</v>
+      </c>
+      <c r="B82" t="s">
+        <v>203</v>
+      </c>
+      <c r="C82" t="s">
+        <v>127</v>
+      </c>
+      <c r="D82" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>29</v>
+      </c>
+      <c r="I82" t="s">
+        <v>25</v>
+      </c>
+      <c r="J82" t="s">
+        <v>25</v>
+      </c>
+      <c r="K82" t="s">
+        <v>25</v>
+      </c>
+      <c r="L82" t="s">
+        <v>25</v>
+      </c>
+      <c r="M82" t="s">
+        <v>25</v>
+      </c>
+      <c r="N82">
+        <v>10.64</v>
+      </c>
+      <c r="O82">
+        <v>15.04</v>
+      </c>
+      <c r="P82" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>25</v>
+      </c>
+      <c r="R82" t="s">
+        <v>25</v>
+      </c>
+      <c r="S82" t="s">
+        <v>25</v>
+      </c>
+      <c r="T82" t="s">
+        <v>25</v>
+      </c>
+      <c r="U82" t="b">
+        <v>0</v>
+      </c>
+      <c r="V82" t="s">
+        <v>25</v>
+      </c>
+      <c r="W82" t="b">
+        <v>0</v>
+      </c>
+      <c r="X82" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>215</v>
+      </c>
+      <c r="B83" t="s">
+        <v>203</v>
+      </c>
+      <c r="C83" t="s">
+        <v>217</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" t="s">
+        <v>23</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83">
+        <v>30</v>
+      </c>
+      <c r="I83" t="s">
+        <v>25</v>
+      </c>
+      <c r="J83" t="s">
+        <v>25</v>
+      </c>
+      <c r="K83" t="s">
+        <v>25</v>
+      </c>
+      <c r="L83" t="s">
+        <v>25</v>
+      </c>
+      <c r="M83" t="s">
+        <v>25</v>
+      </c>
+      <c r="N83">
+        <v>10.99</v>
+      </c>
+      <c r="O83">
+        <v>15.54</v>
+      </c>
+      <c r="P83" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>25</v>
+      </c>
+      <c r="R83" t="s">
+        <v>25</v>
+      </c>
+      <c r="S83" t="s">
+        <v>25</v>
+      </c>
+      <c r="T83" t="s">
+        <v>25</v>
+      </c>
+      <c r="U83" t="b">
+        <v>0</v>
+      </c>
+      <c r="V83" t="s">
+        <v>25</v>
+      </c>
+      <c r="W83" t="b">
+        <v>0</v>
+      </c>
+      <c r="X83" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>215</v>
+      </c>
+      <c r="B84" t="s">
+        <v>203</v>
+      </c>
+      <c r="C84" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" t="s">
+        <v>218</v>
+      </c>
+      <c r="E84" t="s">
+        <v>171</v>
+      </c>
+      <c r="F84" t="s">
+        <v>23</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <v>30</v>
+      </c>
+      <c r="I84" t="s">
+        <v>25</v>
+      </c>
+      <c r="J84" t="s">
+        <v>25</v>
+      </c>
+      <c r="K84" t="s">
+        <v>25</v>
+      </c>
+      <c r="L84" t="s">
+        <v>25</v>
+      </c>
+      <c r="M84" t="s">
+        <v>25</v>
+      </c>
+      <c r="N84">
+        <v>12.02</v>
+      </c>
+      <c r="O84">
+        <v>17</v>
+      </c>
+      <c r="P84" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>25</v>
+      </c>
+      <c r="R84" t="s">
+        <v>25</v>
+      </c>
+      <c r="S84" t="s">
+        <v>25</v>
+      </c>
+      <c r="T84" t="s">
+        <v>25</v>
+      </c>
+      <c r="U84" t="b">
+        <v>0</v>
+      </c>
+      <c r="V84" t="s">
+        <v>25</v>
+      </c>
+      <c r="W84" t="b">
+        <v>0</v>
+      </c>
+      <c r="X84" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>215</v>
+      </c>
+      <c r="B85" t="s">
+        <v>203</v>
+      </c>
+      <c r="C85" t="s">
+        <v>127</v>
+      </c>
+      <c r="D85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85">
+        <v>2</v>
+      </c>
+      <c r="H85">
+        <v>30</v>
+      </c>
+      <c r="I85" t="s">
+        <v>25</v>
+      </c>
+      <c r="J85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K85" t="s">
+        <v>25</v>
+      </c>
+      <c r="L85" t="s">
+        <v>25</v>
+      </c>
+      <c r="M85" t="s">
+        <v>25</v>
+      </c>
+      <c r="N85">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="O85">
+        <v>10.41</v>
+      </c>
+      <c r="P85" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>25</v>
+      </c>
+      <c r="R85" t="s">
+        <v>25</v>
+      </c>
+      <c r="S85" t="s">
+        <v>25</v>
+      </c>
+      <c r="T85" t="s">
+        <v>25</v>
+      </c>
+      <c r="U85" t="b">
+        <v>0</v>
+      </c>
+      <c r="V85" t="s">
+        <v>25</v>
+      </c>
+      <c r="W85" t="b">
+        <v>0</v>
+      </c>
+      <c r="X85" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>215</v>
+      </c>
+      <c r="B86" t="s">
+        <v>203</v>
+      </c>
+      <c r="C86" t="s">
+        <v>217</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" t="s">
+        <v>23</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>30</v>
+      </c>
+      <c r="I86" t="s">
+        <v>25</v>
+      </c>
+      <c r="J86" t="s">
+        <v>25</v>
+      </c>
+      <c r="K86" t="s">
+        <v>25</v>
+      </c>
+      <c r="L86" t="s">
+        <v>25</v>
+      </c>
+      <c r="M86" t="s">
+        <v>25</v>
+      </c>
+      <c r="N86">
+        <v>10.68</v>
+      </c>
+      <c r="O86">
+        <v>14.71</v>
+      </c>
+      <c r="P86" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>25</v>
+      </c>
+      <c r="R86" t="s">
+        <v>25</v>
+      </c>
+      <c r="S86" t="s">
+        <v>25</v>
+      </c>
+      <c r="T86" t="s">
+        <v>25</v>
+      </c>
+      <c r="U86" t="b">
+        <v>0</v>
+      </c>
+      <c r="V86" t="s">
+        <v>25</v>
+      </c>
+      <c r="W86" t="b">
+        <v>0</v>
+      </c>
+      <c r="X86" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>215</v>
+      </c>
+      <c r="B87" t="s">
+        <v>203</v>
+      </c>
+      <c r="C87" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" t="s">
+        <v>218</v>
+      </c>
+      <c r="E87" t="s">
+        <v>171</v>
+      </c>
+      <c r="F87" t="s">
+        <v>23</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>30</v>
+      </c>
+      <c r="I87" t="s">
+        <v>25</v>
+      </c>
+      <c r="J87" t="s">
+        <v>25</v>
+      </c>
+      <c r="K87" t="s">
+        <v>25</v>
+      </c>
+      <c r="L87" t="s">
+        <v>25</v>
+      </c>
+      <c r="M87" t="s">
+        <v>25</v>
+      </c>
+      <c r="N87">
+        <v>12.82</v>
+      </c>
+      <c r="O87">
+        <v>18.13</v>
+      </c>
+      <c r="P87" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>25</v>
+      </c>
+      <c r="R87" t="s">
+        <v>25</v>
+      </c>
+      <c r="S87" t="s">
+        <v>25</v>
+      </c>
+      <c r="T87" t="s">
+        <v>25</v>
+      </c>
+      <c r="U87" t="b">
+        <v>0</v>
+      </c>
+      <c r="V87" t="s">
+        <v>25</v>
+      </c>
+      <c r="W87" t="b">
+        <v>0</v>
+      </c>
+      <c r="X87" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>224</v>
+      </c>
+      <c r="B88" t="s">
+        <v>225</v>
+      </c>
+      <c r="C88" t="s">
+        <v>127</v>
+      </c>
+      <c r="F88" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88">
+        <v>251</v>
+      </c>
+      <c r="I88">
+        <v>45</v>
+      </c>
+      <c r="J88" t="s">
+        <v>25</v>
+      </c>
+      <c r="K88" t="s">
+        <v>25</v>
+      </c>
+      <c r="L88" t="s">
+        <v>25</v>
+      </c>
+      <c r="M88" t="s">
+        <v>25</v>
+      </c>
+      <c r="N88" t="s">
+        <v>25</v>
+      </c>
+      <c r="O88">
+        <v>13</v>
+      </c>
+      <c r="P88" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>25</v>
+      </c>
+      <c r="R88" t="s">
+        <v>25</v>
+      </c>
+      <c r="S88" t="s">
+        <v>25</v>
+      </c>
+      <c r="T88" t="s">
+        <v>25</v>
+      </c>
+      <c r="U88" t="b">
+        <v>1</v>
+      </c>
+      <c r="V88" t="s">
+        <v>226</v>
+      </c>
+      <c r="W88" t="b">
+        <v>0</v>
+      </c>
+      <c r="X88" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>224</v>
+      </c>
+      <c r="B89" t="s">
+        <v>225</v>
+      </c>
+      <c r="C89" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" t="s">
+        <v>55</v>
+      </c>
+      <c r="E89" t="s">
+        <v>227</v>
+      </c>
+      <c r="F89" t="s">
+        <v>23</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="H89">
+        <v>251</v>
+      </c>
+      <c r="I89">
+        <v>94</v>
+      </c>
+      <c r="J89" t="s">
+        <v>25</v>
+      </c>
+      <c r="K89" t="s">
+        <v>25</v>
+      </c>
+      <c r="L89" t="s">
+        <v>25</v>
+      </c>
+      <c r="M89" t="s">
+        <v>25</v>
+      </c>
+      <c r="N89" t="s">
+        <v>25</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>25</v>
+      </c>
+      <c r="R89" t="s">
+        <v>25</v>
+      </c>
+      <c r="S89" t="s">
+        <v>25</v>
+      </c>
+      <c r="T89" t="s">
+        <v>25</v>
+      </c>
+      <c r="U89" t="b">
+        <v>1</v>
+      </c>
+      <c r="V89" t="s">
+        <v>226</v>
+      </c>
+      <c r="W89" t="b">
+        <v>0</v>
+      </c>
+      <c r="X89" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>224</v>
+      </c>
+      <c r="B90" t="s">
+        <v>225</v>
+      </c>
+      <c r="C90" t="s">
+        <v>47</v>
+      </c>
+      <c r="D90" t="s">
+        <v>169</v>
+      </c>
+      <c r="E90" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <v>251</v>
+      </c>
+      <c r="I90">
+        <v>71</v>
+      </c>
+      <c r="J90" t="s">
+        <v>25</v>
+      </c>
+      <c r="K90" t="s">
+        <v>25</v>
+      </c>
+      <c r="L90" t="s">
+        <v>25</v>
+      </c>
+      <c r="M90" t="s">
+        <v>25</v>
+      </c>
+      <c r="N90" t="s">
+        <v>25</v>
+      </c>
+      <c r="O90">
+        <v>6</v>
+      </c>
+      <c r="P90" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>25</v>
+      </c>
+      <c r="R90" t="s">
+        <v>25</v>
+      </c>
+      <c r="S90" t="s">
+        <v>25</v>
+      </c>
+      <c r="T90" t="s">
+        <v>25</v>
+      </c>
+      <c r="U90" t="b">
+        <v>1</v>
+      </c>
+      <c r="V90" t="s">
+        <v>226</v>
+      </c>
+      <c r="W90" t="b">
+        <v>0</v>
+      </c>
+      <c r="X90" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>224</v>
+      </c>
+      <c r="B91" t="s">
+        <v>225</v>
+      </c>
+      <c r="C91" t="s">
+        <v>127</v>
+      </c>
+      <c r="F91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91">
+        <v>251</v>
+      </c>
+      <c r="I91">
+        <v>50</v>
+      </c>
+      <c r="J91" t="s">
+        <v>25</v>
+      </c>
+      <c r="K91" t="s">
+        <v>25</v>
+      </c>
+      <c r="L91" t="s">
+        <v>25</v>
+      </c>
+      <c r="M91" t="s">
+        <v>25</v>
+      </c>
+      <c r="N91" t="s">
+        <v>25</v>
+      </c>
+      <c r="O91">
+        <v>11</v>
+      </c>
+      <c r="P91" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>25</v>
+      </c>
+      <c r="R91" t="s">
+        <v>25</v>
+      </c>
+      <c r="S91" t="s">
+        <v>25</v>
+      </c>
+      <c r="T91" t="s">
+        <v>25</v>
+      </c>
+      <c r="U91" t="b">
+        <v>1</v>
+      </c>
+      <c r="V91" t="s">
+        <v>226</v>
+      </c>
+      <c r="W91" t="b">
+        <v>0</v>
+      </c>
+      <c r="X91" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>224</v>
+      </c>
+      <c r="B92" t="s">
+        <v>225</v>
+      </c>
+      <c r="C92" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" t="s">
+        <v>55</v>
+      </c>
+      <c r="E92" t="s">
+        <v>227</v>
+      </c>
+      <c r="F92" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92">
+        <v>2</v>
+      </c>
+      <c r="H92">
+        <v>251</v>
+      </c>
+      <c r="I92">
+        <v>95</v>
+      </c>
+      <c r="J92" t="s">
+        <v>25</v>
+      </c>
+      <c r="K92" t="s">
+        <v>25</v>
+      </c>
+      <c r="L92" t="s">
+        <v>25</v>
+      </c>
+      <c r="M92" t="s">
+        <v>25</v>
+      </c>
+      <c r="N92" t="s">
+        <v>25</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>25</v>
+      </c>
+      <c r="R92" t="s">
+        <v>25</v>
+      </c>
+      <c r="S92" t="s">
+        <v>25</v>
+      </c>
+      <c r="T92" t="s">
+        <v>25</v>
+      </c>
+      <c r="U92" t="b">
+        <v>1</v>
+      </c>
+      <c r="V92" t="s">
+        <v>226</v>
+      </c>
+      <c r="W92" t="b">
+        <v>0</v>
+      </c>
+      <c r="X92" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>224</v>
+      </c>
+      <c r="B93" t="s">
+        <v>225</v>
+      </c>
+      <c r="C93" t="s">
+        <v>47</v>
+      </c>
+      <c r="D93" t="s">
+        <v>169</v>
+      </c>
+      <c r="E93" t="s">
+        <v>22</v>
+      </c>
+      <c r="F93" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93">
+        <v>2</v>
+      </c>
+      <c r="H93">
+        <v>251</v>
+      </c>
+      <c r="I93">
+        <v>76</v>
+      </c>
+      <c r="J93" t="s">
+        <v>25</v>
+      </c>
+      <c r="K93" t="s">
+        <v>25</v>
+      </c>
+      <c r="L93" t="s">
+        <v>25</v>
+      </c>
+      <c r="M93" t="s">
+        <v>25</v>
+      </c>
+      <c r="N93" t="s">
+        <v>25</v>
+      </c>
+      <c r="O93">
+        <v>5</v>
+      </c>
+      <c r="P93" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>25</v>
+      </c>
+      <c r="R93" t="s">
+        <v>25</v>
+      </c>
+      <c r="S93" t="s">
+        <v>25</v>
+      </c>
+      <c r="T93" t="s">
+        <v>25</v>
+      </c>
+      <c r="U93" t="b">
+        <v>1</v>
+      </c>
+      <c r="V93" t="s">
+        <v>226</v>
+      </c>
+      <c r="W93" t="b">
+        <v>0</v>
+      </c>
+      <c r="X93" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>176</v>
+      </c>
+      <c r="B96" t="s">
+        <v>177</v>
+      </c>
+      <c r="C96" t="s">
+        <v>170</v>
+      </c>
+      <c r="D96" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" t="s">
+        <v>171</v>
+      </c>
+      <c r="F96" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
+      <c r="H96">
+        <v>243</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>10</v>
+      </c>
+      <c r="K96">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="L96">
+        <v>68.7</v>
+      </c>
+      <c r="O96">
+        <v>17.8</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>176</v>
+      </c>
+      <c r="B97" t="s">
+        <v>177</v>
+      </c>
+      <c r="C97" t="s">
+        <v>170</v>
+      </c>
+      <c r="D97" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" t="s">
+        <v>23</v>
+      </c>
+      <c r="G97">
+        <v>2</v>
+      </c>
+      <c r="H97">
+        <v>243</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>11</v>
+      </c>
+      <c r="L97">
+        <v>95.5</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>176</v>
+      </c>
+      <c r="B98" t="s">
+        <v>177</v>
+      </c>
+      <c r="C98" t="s">
+        <v>178</v>
+      </c>
+      <c r="D98" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" t="s">
+        <v>171</v>
+      </c>
+      <c r="F98" t="s">
+        <v>23</v>
+      </c>
+      <c r="G98">
+        <v>2</v>
+      </c>
+      <c r="H98">
+        <v>243</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>10</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>176</v>
+      </c>
+      <c r="B99" t="s">
+        <v>177</v>
+      </c>
+      <c r="C99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" t="s">
+        <v>55</v>
+      </c>
+      <c r="E99" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99" t="s">
+        <v>23</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99">
+        <v>243</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>12</v>
+      </c>
+      <c r="K99">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="L99">
+        <v>97.9</v>
+      </c>
+      <c r="O99">
+        <v>4</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>176</v>
+      </c>
+      <c r="B100" t="s">
+        <v>177</v>
+      </c>
+      <c r="C100" t="s">
+        <v>127</v>
+      </c>
+      <c r="D100" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" t="s">
+        <v>132</v>
+      </c>
+      <c r="F100" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100">
+        <v>2</v>
+      </c>
+      <c r="H100">
+        <v>243</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>11</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3773,21 +9259,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="84" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -3798,7 +9284,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3806,7 +9292,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3817,7 +9303,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3828,7 +9314,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3839,7 +9325,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3850,7 +9336,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3861,7 +9347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3869,7 +9355,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3877,7 +9363,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -3885,7 +9371,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -3893,7 +9379,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -3901,7 +9387,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -3909,7 +9395,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>89</v>
       </c>
@@ -3917,7 +9403,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>155</v>
       </c>
@@ -3925,7 +9411,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -3933,7 +9419,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -3941,7 +9427,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>156</v>
       </c>
@@ -3949,7 +9435,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -3957,7 +9443,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>157</v>
       </c>
@@ -3965,7 +9451,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -3973,7 +9459,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -3981,7 +9467,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3992,7 +9478,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -4000,7 +9486,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -4011,7 +9497,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -4019,7 +9505,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -4033,21 +9519,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="84" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -4058,7 +9544,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4066,7 +9552,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4077,7 +9563,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4088,7 +9574,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4099,7 +9585,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4110,7 +9596,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -4121,7 +9607,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4129,7 +9615,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4137,7 +9623,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>126</v>
       </c>
@@ -4148,7 +9634,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -4156,7 +9642,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -4164,7 +9650,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -4172,7 +9658,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>112</v>
       </c>
@@ -4180,7 +9666,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -4188,7 +9674,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -4196,7 +9682,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -4204,7 +9690,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -4212,7 +9698,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>156</v>
       </c>
@@ -4220,7 +9706,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -4228,7 +9714,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>157</v>
       </c>
@@ -4236,7 +9722,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -4250,21 +9736,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -4275,7 +9761,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4283,7 +9769,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4294,7 +9780,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4305,7 +9791,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4316,7 +9802,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4327,7 +9813,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -4338,7 +9824,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -4346,7 +9832,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -4354,7 +9840,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -4362,7 +9848,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -4370,7 +9856,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>138</v>
       </c>
@@ -4378,7 +9864,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>139</v>
       </c>
@@ -4386,7 +9872,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>140</v>
       </c>
@@ -4394,7 +9880,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>141</v>
       </c>
@@ -4402,7 +9888,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>142</v>
       </c>
@@ -4410,7 +9896,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>143</v>
       </c>
